--- a/099-納品物（最終成果物）/000-要件定義/003-WBS.xlsx
+++ b/099-納品物（最終成果物）/000-要件定義/003-WBS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\000-要件定義\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\099-納品物（最終成果物）\000-要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CC46DF-69A5-42D1-A2AD-1CE80EB1344C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232992D7-C278-4DC0-9C22-38277083B8CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1946,7 +1946,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="302">
+  <cellXfs count="304">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2263,9 +2263,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2418,12 +2415,279 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2439,278 +2703,134 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2718,128 +2838,14 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3551,8 +3557,8 @@
   </sheetPr>
   <dimension ref="A1:BN84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F78" sqref="F78:F79"/>
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
@@ -3569,94 +3575,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A1" s="241" t="s">
+      <c r="A1" s="182" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="244" t="s">
+      <c r="B1" s="185" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="247" t="s">
+      <c r="C1" s="188" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="248"/>
-      <c r="E1" s="253" t="s">
+      <c r="D1" s="189"/>
+      <c r="E1" s="194" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="256" t="s">
+      <c r="F1" s="197" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="238">
+      <c r="G1" s="179">
         <v>45536</v>
       </c>
-      <c r="H1" s="239"/>
-      <c r="I1" s="239"/>
-      <c r="J1" s="239"/>
-      <c r="K1" s="239"/>
-      <c r="L1" s="239"/>
-      <c r="M1" s="239"/>
-      <c r="N1" s="239"/>
-      <c r="O1" s="239"/>
-      <c r="P1" s="239"/>
-      <c r="Q1" s="239"/>
-      <c r="R1" s="239"/>
-      <c r="S1" s="239"/>
-      <c r="T1" s="239"/>
-      <c r="U1" s="239"/>
-      <c r="V1" s="239"/>
-      <c r="W1" s="239"/>
-      <c r="X1" s="239"/>
-      <c r="Y1" s="239"/>
-      <c r="Z1" s="239"/>
-      <c r="AA1" s="239"/>
-      <c r="AB1" s="239"/>
-      <c r="AC1" s="239"/>
-      <c r="AD1" s="239"/>
-      <c r="AE1" s="239"/>
-      <c r="AF1" s="239"/>
-      <c r="AG1" s="239"/>
-      <c r="AH1" s="239"/>
-      <c r="AI1" s="239"/>
-      <c r="AJ1" s="240"/>
-      <c r="AK1" s="238">
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
+      <c r="J1" s="180"/>
+      <c r="K1" s="180"/>
+      <c r="L1" s="180"/>
+      <c r="M1" s="180"/>
+      <c r="N1" s="180"/>
+      <c r="O1" s="180"/>
+      <c r="P1" s="180"/>
+      <c r="Q1" s="180"/>
+      <c r="R1" s="180"/>
+      <c r="S1" s="180"/>
+      <c r="T1" s="180"/>
+      <c r="U1" s="180"/>
+      <c r="V1" s="180"/>
+      <c r="W1" s="180"/>
+      <c r="X1" s="180"/>
+      <c r="Y1" s="180"/>
+      <c r="Z1" s="180"/>
+      <c r="AA1" s="180"/>
+      <c r="AB1" s="180"/>
+      <c r="AC1" s="180"/>
+      <c r="AD1" s="180"/>
+      <c r="AE1" s="180"/>
+      <c r="AF1" s="180"/>
+      <c r="AG1" s="180"/>
+      <c r="AH1" s="180"/>
+      <c r="AI1" s="180"/>
+      <c r="AJ1" s="181"/>
+      <c r="AK1" s="179">
         <v>45566</v>
       </c>
-      <c r="AL1" s="239"/>
-      <c r="AM1" s="239"/>
-      <c r="AN1" s="239"/>
-      <c r="AO1" s="239"/>
-      <c r="AP1" s="239"/>
-      <c r="AQ1" s="239"/>
-      <c r="AR1" s="239"/>
-      <c r="AS1" s="239"/>
-      <c r="AT1" s="239"/>
-      <c r="AU1" s="239"/>
-      <c r="AV1" s="239"/>
-      <c r="AW1" s="239"/>
-      <c r="AX1" s="239"/>
-      <c r="AY1" s="239"/>
-      <c r="AZ1" s="239"/>
-      <c r="BA1" s="239"/>
-      <c r="BB1" s="239"/>
-      <c r="BC1" s="239"/>
-      <c r="BD1" s="239"/>
-      <c r="BE1" s="239"/>
-      <c r="BF1" s="239"/>
-      <c r="BG1" s="239"/>
-      <c r="BH1" s="239"/>
-      <c r="BI1" s="239"/>
-      <c r="BJ1" s="239"/>
-      <c r="BK1" s="239"/>
-      <c r="BL1" s="239"/>
-      <c r="BM1" s="239"/>
-      <c r="BN1" s="240"/>
+      <c r="AL1" s="180"/>
+      <c r="AM1" s="180"/>
+      <c r="AN1" s="180"/>
+      <c r="AO1" s="180"/>
+      <c r="AP1" s="180"/>
+      <c r="AQ1" s="180"/>
+      <c r="AR1" s="180"/>
+      <c r="AS1" s="180"/>
+      <c r="AT1" s="180"/>
+      <c r="AU1" s="180"/>
+      <c r="AV1" s="180"/>
+      <c r="AW1" s="180"/>
+      <c r="AX1" s="180"/>
+      <c r="AY1" s="180"/>
+      <c r="AZ1" s="180"/>
+      <c r="BA1" s="180"/>
+      <c r="BB1" s="180"/>
+      <c r="BC1" s="180"/>
+      <c r="BD1" s="180"/>
+      <c r="BE1" s="180"/>
+      <c r="BF1" s="180"/>
+      <c r="BG1" s="180"/>
+      <c r="BH1" s="180"/>
+      <c r="BI1" s="180"/>
+      <c r="BJ1" s="180"/>
+      <c r="BK1" s="180"/>
+      <c r="BL1" s="180"/>
+      <c r="BM1" s="180"/>
+      <c r="BN1" s="181"/>
     </row>
     <row r="2" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A2" s="242"/>
-      <c r="B2" s="245"/>
-      <c r="C2" s="249"/>
-      <c r="D2" s="250"/>
-      <c r="E2" s="254"/>
-      <c r="F2" s="257"/>
+      <c r="A2" s="183"/>
+      <c r="B2" s="186"/>
+      <c r="C2" s="190"/>
+      <c r="D2" s="191"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="198"/>
       <c r="G2" s="46">
         <v>45537</v>
       </c>
@@ -3898,12 +3904,12 @@
       </c>
     </row>
     <row r="3" spans="1:66" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="243"/>
-      <c r="B3" s="246"/>
-      <c r="C3" s="251"/>
-      <c r="D3" s="252"/>
-      <c r="E3" s="255"/>
-      <c r="F3" s="258"/>
+      <c r="A3" s="184"/>
+      <c r="B3" s="187"/>
+      <c r="C3" s="192"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="196"/>
+      <c r="F3" s="199"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -4086,20 +4092,20 @@
       </c>
     </row>
     <row r="4" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A4" s="159">
+      <c r="A4" s="158">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="233" t="s">
+      <c r="C4" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="198"/>
-      <c r="E4" s="234" t="s">
+      <c r="D4" s="167"/>
+      <c r="E4" s="175" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="236" t="s">
+      <c r="F4" s="177" t="s">
         <v>56</v>
       </c>
       <c r="G4" s="102"/>
@@ -4109,7 +4115,7 @@
       <c r="K4" s="61"/>
       <c r="L4" s="12"/>
       <c r="M4" s="18"/>
-      <c r="N4" s="123"/>
+      <c r="N4" s="122"/>
       <c r="O4" s="10"/>
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
@@ -4164,12 +4170,12 @@
       <c r="BN4" s="71"/>
     </row>
     <row r="5" spans="1:66" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A5" s="160"/>
+      <c r="A5" s="159"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="195"/>
-      <c r="D5" s="196"/>
-      <c r="E5" s="235"/>
-      <c r="F5" s="237"/>
+      <c r="C5" s="168"/>
+      <c r="D5" s="169"/>
+      <c r="E5" s="176"/>
+      <c r="F5" s="178"/>
       <c r="G5" s="104"/>
       <c r="H5" s="62"/>
       <c r="I5" s="62"/>
@@ -4232,18 +4238,18 @@
       <c r="BN5" s="72"/>
     </row>
     <row r="6" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A6" s="159">
+      <c r="A6" s="158">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="221" t="s">
+      <c r="C6" s="213" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="194"/>
-      <c r="E6" s="229" t="s">
+      <c r="D6" s="214"/>
+      <c r="E6" s="217" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="231" t="s">
+      <c r="F6" s="219" t="s">
         <v>56</v>
       </c>
       <c r="G6" s="51"/>
@@ -4253,7 +4259,7 @@
       <c r="K6" s="63"/>
       <c r="L6" s="13"/>
       <c r="M6" s="19"/>
-      <c r="N6" s="124"/>
+      <c r="N6" s="123"/>
       <c r="O6" s="63"/>
       <c r="P6" s="63"/>
       <c r="Q6" s="63"/>
@@ -4308,14 +4314,14 @@
       <c r="BN6" s="73"/>
     </row>
     <row r="7" spans="1:66" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="160"/>
+      <c r="A7" s="159"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="223"/>
-      <c r="D7" s="224"/>
-      <c r="E7" s="230"/>
-      <c r="F7" s="232"/>
+      <c r="C7" s="215"/>
+      <c r="D7" s="216"/>
+      <c r="E7" s="218"/>
+      <c r="F7" s="220"/>
       <c r="G7" s="52"/>
-      <c r="H7" s="122"/>
+      <c r="H7" s="121"/>
       <c r="I7" s="32"/>
       <c r="J7" s="32"/>
       <c r="K7" s="64"/>
@@ -4376,20 +4382,20 @@
       <c r="BN7" s="74"/>
     </row>
     <row r="8" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A8" s="159">
+      <c r="A8" s="158">
         <v>3</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="188" t="s">
+      <c r="C8" s="207" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="189"/>
-      <c r="E8" s="185" t="s">
+      <c r="D8" s="208"/>
+      <c r="E8" s="221" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="187" t="s">
+      <c r="F8" s="222" t="s">
         <v>56</v>
       </c>
       <c r="G8" s="38"/>
@@ -4400,14 +4406,14 @@
       <c r="L8" s="15"/>
       <c r="M8" s="21"/>
       <c r="N8" s="60"/>
-      <c r="O8" s="129"/>
+      <c r="O8" s="128"/>
       <c r="P8" s="40"/>
       <c r="Q8" s="105"/>
       <c r="R8" s="105"/>
       <c r="S8" s="15"/>
       <c r="T8" s="21"/>
-      <c r="U8" s="139"/>
-      <c r="V8" s="126"/>
+      <c r="U8" s="138"/>
+      <c r="V8" s="125"/>
       <c r="W8" s="105"/>
       <c r="X8" s="6"/>
       <c r="Y8" s="6"/>
@@ -4454,12 +4460,12 @@
       <c r="BN8" s="75"/>
     </row>
     <row r="9" spans="1:66" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A9" s="160"/>
+      <c r="A9" s="159"/>
       <c r="B9" s="36"/>
-      <c r="C9" s="176"/>
-      <c r="D9" s="177"/>
-      <c r="E9" s="186"/>
-      <c r="F9" s="171"/>
+      <c r="C9" s="202"/>
+      <c r="D9" s="203"/>
+      <c r="E9" s="161"/>
+      <c r="F9" s="206"/>
       <c r="G9" s="50"/>
       <c r="H9" s="62"/>
       <c r="I9" s="62"/>
@@ -4469,14 +4475,14 @@
       <c r="M9" s="22"/>
       <c r="N9" s="31"/>
       <c r="O9" s="31"/>
-      <c r="P9" s="120"/>
-      <c r="Q9" s="120"/>
-      <c r="R9" s="120"/>
+      <c r="P9" s="119"/>
+      <c r="Q9" s="119"/>
+      <c r="R9" s="119"/>
       <c r="S9" s="16"/>
       <c r="T9" s="22"/>
       <c r="U9" s="22"/>
-      <c r="V9" s="120"/>
-      <c r="W9" s="120"/>
+      <c r="V9" s="119"/>
+      <c r="W9" s="119"/>
       <c r="X9" s="31"/>
       <c r="Y9" s="9"/>
       <c r="Z9" s="16"/>
@@ -4522,18 +4528,18 @@
       <c r="BN9" s="72"/>
     </row>
     <row r="10" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A10" s="159">
+      <c r="A10" s="158">
         <v>4</v>
       </c>
       <c r="B10" s="36"/>
-      <c r="C10" s="174" t="s">
+      <c r="C10" s="224" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="175"/>
-      <c r="E10" s="182" t="s">
+      <c r="D10" s="225"/>
+      <c r="E10" s="160" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="170" t="s">
+      <c r="F10" s="223" t="s">
         <v>56</v>
       </c>
       <c r="G10" s="50"/>
@@ -4543,16 +4549,16 @@
       <c r="K10" s="62"/>
       <c r="L10" s="16"/>
       <c r="M10" s="22"/>
-      <c r="N10" s="114"/>
-      <c r="O10" s="131"/>
+      <c r="N10" s="113"/>
+      <c r="O10" s="130"/>
       <c r="P10" s="41"/>
-      <c r="Q10" s="120"/>
-      <c r="R10" s="120"/>
+      <c r="Q10" s="119"/>
+      <c r="R10" s="119"/>
       <c r="S10" s="97"/>
       <c r="T10" s="98"/>
       <c r="U10" s="98"/>
-      <c r="V10" s="127"/>
-      <c r="W10" s="120"/>
+      <c r="V10" s="126"/>
+      <c r="W10" s="119"/>
       <c r="X10" s="9"/>
       <c r="Y10" s="9"/>
       <c r="Z10" s="16"/>
@@ -4598,12 +4604,12 @@
       <c r="BN10" s="72"/>
     </row>
     <row r="11" spans="1:66" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A11" s="160"/>
+      <c r="A11" s="159"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="176"/>
-      <c r="D11" s="177"/>
-      <c r="E11" s="186"/>
-      <c r="F11" s="171"/>
+      <c r="C11" s="202"/>
+      <c r="D11" s="203"/>
+      <c r="E11" s="161"/>
+      <c r="F11" s="206"/>
       <c r="G11" s="51"/>
       <c r="H11" s="63"/>
       <c r="I11" s="63"/>
@@ -4611,16 +4617,16 @@
       <c r="K11" s="62"/>
       <c r="L11" s="16"/>
       <c r="M11" s="22"/>
-      <c r="N11" s="151"/>
+      <c r="N11" s="150"/>
       <c r="O11" s="31"/>
-      <c r="P11" s="120"/>
-      <c r="Q11" s="120"/>
-      <c r="R11" s="138"/>
-      <c r="S11" s="140"/>
+      <c r="P11" s="119"/>
+      <c r="Q11" s="119"/>
+      <c r="R11" s="137"/>
+      <c r="S11" s="139"/>
       <c r="T11" s="19"/>
       <c r="U11" s="19"/>
-      <c r="V11" s="138"/>
-      <c r="W11" s="120"/>
+      <c r="V11" s="137"/>
+      <c r="W11" s="119"/>
       <c r="X11" s="31"/>
       <c r="Y11" s="9"/>
       <c r="Z11" s="16"/>
@@ -4666,18 +4672,18 @@
       <c r="BN11" s="72"/>
     </row>
     <row r="12" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A12" s="159">
+      <c r="A12" s="158">
         <v>5</v>
       </c>
       <c r="B12" s="36"/>
-      <c r="C12" s="178" t="s">
+      <c r="C12" s="200" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="179"/>
-      <c r="E12" s="183" t="s">
+      <c r="D12" s="201"/>
+      <c r="E12" s="204" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="172" t="s">
+      <c r="F12" s="205" t="s">
         <v>56</v>
       </c>
       <c r="G12" s="50"/>
@@ -4687,16 +4693,16 @@
       <c r="K12" s="62"/>
       <c r="L12" s="16"/>
       <c r="M12" s="22"/>
-      <c r="N12" s="137"/>
-      <c r="O12" s="131"/>
+      <c r="N12" s="136"/>
+      <c r="O12" s="130"/>
       <c r="P12" s="41"/>
-      <c r="Q12" s="120"/>
-      <c r="R12" s="120"/>
+      <c r="Q12" s="119"/>
+      <c r="R12" s="119"/>
       <c r="S12" s="13"/>
       <c r="T12" s="19"/>
       <c r="U12" s="100"/>
-      <c r="V12" s="127"/>
-      <c r="W12" s="120"/>
+      <c r="V12" s="126"/>
+      <c r="W12" s="119"/>
       <c r="X12" s="9"/>
       <c r="Y12" s="9"/>
       <c r="Z12" s="16"/>
@@ -4742,12 +4748,12 @@
       <c r="BN12" s="72"/>
     </row>
     <row r="13" spans="1:66" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A13" s="160"/>
+      <c r="A13" s="159"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="176"/>
-      <c r="D13" s="177"/>
-      <c r="E13" s="186"/>
-      <c r="F13" s="171"/>
+      <c r="C13" s="202"/>
+      <c r="D13" s="203"/>
+      <c r="E13" s="161"/>
+      <c r="F13" s="206"/>
       <c r="G13" s="50"/>
       <c r="H13" s="62"/>
       <c r="I13" s="62"/>
@@ -4755,16 +4761,16 @@
       <c r="K13" s="62"/>
       <c r="L13" s="16"/>
       <c r="M13" s="22"/>
-      <c r="N13" s="151"/>
+      <c r="N13" s="150"/>
       <c r="O13" s="31"/>
-      <c r="P13" s="120"/>
-      <c r="Q13" s="120"/>
-      <c r="R13" s="120"/>
+      <c r="P13" s="119"/>
+      <c r="Q13" s="119"/>
+      <c r="R13" s="119"/>
       <c r="S13" s="16"/>
       <c r="T13" s="22"/>
       <c r="U13" s="22"/>
-      <c r="V13" s="120"/>
-      <c r="W13" s="120"/>
+      <c r="V13" s="119"/>
+      <c r="W13" s="119"/>
       <c r="X13" s="31"/>
       <c r="Y13" s="9"/>
       <c r="Z13" s="16"/>
@@ -4810,18 +4816,18 @@
       <c r="BN13" s="72"/>
     </row>
     <row r="14" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A14" s="159">
+      <c r="A14" s="158">
         <v>6</v>
       </c>
       <c r="B14" s="36"/>
-      <c r="C14" s="178" t="s">
+      <c r="C14" s="200" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="179"/>
-      <c r="E14" s="183" t="s">
+      <c r="D14" s="201"/>
+      <c r="E14" s="204" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="172" t="s">
+      <c r="F14" s="205" t="s">
         <v>56</v>
       </c>
       <c r="G14" s="50"/>
@@ -4831,16 +4837,16 @@
       <c r="K14" s="62"/>
       <c r="L14" s="16"/>
       <c r="M14" s="22"/>
-      <c r="N14" s="136"/>
-      <c r="O14" s="120"/>
+      <c r="N14" s="135"/>
+      <c r="O14" s="119"/>
       <c r="P14" s="41"/>
       <c r="Q14" s="41"/>
-      <c r="R14" s="120"/>
+      <c r="R14" s="119"/>
       <c r="S14" s="16"/>
       <c r="T14" s="22"/>
       <c r="U14" s="22"/>
-      <c r="V14" s="127"/>
-      <c r="W14" s="120"/>
+      <c r="V14" s="126"/>
+      <c r="W14" s="119"/>
       <c r="X14" s="9"/>
       <c r="Y14" s="9"/>
       <c r="Z14" s="16"/>
@@ -4886,12 +4892,12 @@
       <c r="BN14" s="72"/>
     </row>
     <row r="15" spans="1:66" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A15" s="160"/>
+      <c r="A15" s="159"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="176"/>
-      <c r="D15" s="177"/>
-      <c r="E15" s="186"/>
-      <c r="F15" s="171"/>
+      <c r="C15" s="202"/>
+      <c r="D15" s="203"/>
+      <c r="E15" s="161"/>
+      <c r="F15" s="206"/>
       <c r="G15" s="50"/>
       <c r="H15" s="62"/>
       <c r="I15" s="62"/>
@@ -4908,7 +4914,7 @@
       <c r="T15" s="22"/>
       <c r="U15" s="22"/>
       <c r="V15" s="9"/>
-      <c r="W15" s="120"/>
+      <c r="W15" s="119"/>
       <c r="X15" s="31"/>
       <c r="Y15" s="9"/>
       <c r="Z15" s="16"/>
@@ -4954,18 +4960,18 @@
       <c r="BN15" s="72"/>
     </row>
     <row r="16" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A16" s="159">
+      <c r="A16" s="158">
         <v>7</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="225" t="s">
+      <c r="C16" s="209" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="226"/>
-      <c r="E16" s="182" t="s">
+      <c r="D16" s="210"/>
+      <c r="E16" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="170" t="s">
+      <c r="F16" s="223" t="s">
         <v>56</v>
       </c>
       <c r="G16" s="51"/>
@@ -4975,15 +4981,15 @@
       <c r="K16" s="63"/>
       <c r="L16" s="13"/>
       <c r="M16" s="100"/>
-      <c r="N16" s="119"/>
-      <c r="O16" s="148"/>
+      <c r="N16" s="118"/>
+      <c r="O16" s="147"/>
       <c r="P16" s="30"/>
       <c r="Q16" s="30"/>
       <c r="R16" s="106"/>
       <c r="S16" s="13"/>
       <c r="T16" s="19"/>
       <c r="U16" s="19"/>
-      <c r="V16" s="124"/>
+      <c r="V16" s="123"/>
       <c r="W16" s="106"/>
       <c r="X16" s="7"/>
       <c r="Y16" s="7"/>
@@ -5030,11 +5036,11 @@
       <c r="BN16" s="73"/>
     </row>
     <row r="17" spans="1:66" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A17" s="160"/>
-      <c r="C17" s="227"/>
-      <c r="D17" s="228"/>
-      <c r="E17" s="186"/>
-      <c r="F17" s="171"/>
+      <c r="A17" s="159"/>
+      <c r="C17" s="211"/>
+      <c r="D17" s="212"/>
+      <c r="E17" s="161"/>
+      <c r="F17" s="206"/>
       <c r="G17" s="95"/>
       <c r="H17" s="63"/>
       <c r="I17" s="63"/>
@@ -5044,7 +5050,7 @@
       <c r="M17" s="19"/>
       <c r="N17" s="63"/>
       <c r="O17" s="63"/>
-      <c r="P17" s="152"/>
+      <c r="P17" s="151"/>
       <c r="Q17" s="63"/>
       <c r="R17" s="63"/>
       <c r="S17" s="13"/>
@@ -5052,7 +5058,7 @@
       <c r="U17" s="19"/>
       <c r="V17" s="7"/>
       <c r="W17" s="106"/>
-      <c r="X17" s="152"/>
+      <c r="X17" s="151"/>
       <c r="Y17" s="7"/>
       <c r="Z17" s="13"/>
       <c r="AA17" s="19"/>
@@ -5097,18 +5103,18 @@
       <c r="BN17" s="73"/>
     </row>
     <row r="18" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A18" s="159">
+      <c r="A18" s="158">
         <v>8</v>
       </c>
       <c r="B18" s="36"/>
-      <c r="C18" s="174" t="s">
+      <c r="C18" s="224" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="175"/>
-      <c r="E18" s="182" t="s">
+      <c r="D18" s="225"/>
+      <c r="E18" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="170" t="s">
+      <c r="F18" s="223" t="s">
         <v>56</v>
       </c>
       <c r="G18" s="101"/>
@@ -5119,14 +5125,14 @@
       <c r="L18" s="13"/>
       <c r="M18" s="19"/>
       <c r="N18" s="106"/>
-      <c r="O18" s="148"/>
+      <c r="O18" s="147"/>
       <c r="P18" s="30"/>
       <c r="Q18" s="30"/>
-      <c r="R18" s="138"/>
+      <c r="R18" s="137"/>
       <c r="S18" s="13"/>
       <c r="T18" s="19"/>
       <c r="U18" s="19"/>
-      <c r="V18" s="124"/>
+      <c r="V18" s="123"/>
       <c r="W18" s="106"/>
       <c r="X18" s="7"/>
       <c r="Y18" s="7"/>
@@ -5173,12 +5179,12 @@
       <c r="BN18" s="73"/>
     </row>
     <row r="19" spans="1:66" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A19" s="160"/>
+      <c r="A19" s="159"/>
       <c r="B19" s="36"/>
-      <c r="C19" s="176"/>
-      <c r="D19" s="177"/>
-      <c r="E19" s="186"/>
-      <c r="F19" s="171"/>
+      <c r="C19" s="202"/>
+      <c r="D19" s="203"/>
+      <c r="E19" s="161"/>
+      <c r="F19" s="206"/>
       <c r="G19" s="51"/>
       <c r="H19" s="63"/>
       <c r="I19" s="63"/>
@@ -5188,7 +5194,7 @@
       <c r="M19" s="19"/>
       <c r="N19" s="106"/>
       <c r="O19" s="106"/>
-      <c r="P19" s="152"/>
+      <c r="P19" s="151"/>
       <c r="Q19" s="106"/>
       <c r="R19" s="106"/>
       <c r="S19" s="13"/>
@@ -5196,7 +5202,7 @@
       <c r="U19" s="19"/>
       <c r="V19" s="106"/>
       <c r="W19" s="106"/>
-      <c r="X19" s="152"/>
+      <c r="X19" s="151"/>
       <c r="Y19" s="7"/>
       <c r="Z19" s="13"/>
       <c r="AA19" s="19"/>
@@ -5241,18 +5247,18 @@
       <c r="BN19" s="73"/>
     </row>
     <row r="20" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A20" s="159">
+      <c r="A20" s="158">
         <v>9</v>
       </c>
       <c r="B20" s="36"/>
-      <c r="C20" s="178" t="s">
+      <c r="C20" s="200" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="179"/>
-      <c r="E20" s="183" t="s">
+      <c r="D20" s="201"/>
+      <c r="E20" s="204" t="s">
         <v>59</v>
       </c>
-      <c r="F20" s="172" t="s">
+      <c r="F20" s="205" t="s">
         <v>56</v>
       </c>
       <c r="G20" s="51"/>
@@ -5270,7 +5276,7 @@
       <c r="S20" s="13"/>
       <c r="T20" s="19"/>
       <c r="U20" s="19"/>
-      <c r="V20" s="124"/>
+      <c r="V20" s="123"/>
       <c r="W20" s="106"/>
       <c r="X20" s="7"/>
       <c r="Y20" s="7"/>
@@ -5317,12 +5323,12 @@
       <c r="BN20" s="73"/>
     </row>
     <row r="21" spans="1:66" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A21" s="160"/>
+      <c r="A21" s="159"/>
       <c r="B21" s="36"/>
-      <c r="C21" s="176"/>
-      <c r="D21" s="177"/>
-      <c r="E21" s="186"/>
-      <c r="F21" s="171"/>
+      <c r="C21" s="202"/>
+      <c r="D21" s="203"/>
+      <c r="E21" s="161"/>
+      <c r="F21" s="206"/>
       <c r="G21" s="50"/>
       <c r="H21" s="62"/>
       <c r="I21" s="62"/>
@@ -5330,16 +5336,16 @@
       <c r="K21" s="62"/>
       <c r="L21" s="16"/>
       <c r="M21" s="22"/>
-      <c r="N21" s="120"/>
-      <c r="O21" s="120"/>
-      <c r="P21" s="120"/>
+      <c r="N21" s="119"/>
+      <c r="O21" s="119"/>
+      <c r="P21" s="119"/>
       <c r="Q21" s="31"/>
-      <c r="R21" s="120"/>
+      <c r="R21" s="119"/>
       <c r="S21" s="16"/>
       <c r="T21" s="22"/>
       <c r="U21" s="22"/>
-      <c r="V21" s="120"/>
-      <c r="W21" s="120"/>
+      <c r="V21" s="119"/>
+      <c r="W21" s="119"/>
       <c r="X21" s="31"/>
       <c r="Y21" s="9"/>
       <c r="Z21" s="16"/>
@@ -5385,18 +5391,18 @@
       <c r="BN21" s="72"/>
     </row>
     <row r="22" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A22" s="159">
+      <c r="A22" s="158">
         <v>10</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="178" t="s">
+      <c r="C22" s="200" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="179"/>
-      <c r="E22" s="183" t="s">
+      <c r="D22" s="201"/>
+      <c r="E22" s="204" t="s">
         <v>59</v>
       </c>
-      <c r="F22" s="172" t="s">
+      <c r="F22" s="205" t="s">
         <v>56</v>
       </c>
       <c r="G22" s="51"/>
@@ -5414,7 +5420,7 @@
       <c r="S22" s="13"/>
       <c r="T22" s="19"/>
       <c r="U22" s="19"/>
-      <c r="V22" s="124"/>
+      <c r="V22" s="123"/>
       <c r="W22" s="106"/>
       <c r="X22" s="7"/>
       <c r="Y22" s="7"/>
@@ -5461,12 +5467,12 @@
       <c r="BN22" s="73"/>
     </row>
     <row r="23" spans="1:66" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A23" s="160"/>
+      <c r="A23" s="159"/>
       <c r="B23" s="37"/>
-      <c r="C23" s="180"/>
-      <c r="D23" s="181"/>
-      <c r="E23" s="184"/>
-      <c r="F23" s="173"/>
+      <c r="C23" s="256"/>
+      <c r="D23" s="257"/>
+      <c r="E23" s="250"/>
+      <c r="F23" s="228"/>
       <c r="G23" s="53"/>
       <c r="H23" s="66"/>
       <c r="I23" s="66"/>
@@ -5476,15 +5482,15 @@
       <c r="M23" s="45"/>
       <c r="N23" s="96"/>
       <c r="O23" s="66"/>
-      <c r="P23" s="147"/>
-      <c r="Q23" s="153"/>
-      <c r="R23" s="153"/>
+      <c r="P23" s="146"/>
+      <c r="Q23" s="152"/>
+      <c r="R23" s="152"/>
       <c r="S23" s="44"/>
       <c r="T23" s="45"/>
       <c r="U23" s="45"/>
       <c r="V23" s="43"/>
       <c r="W23" s="43"/>
-      <c r="X23" s="153"/>
+      <c r="X23" s="152"/>
       <c r="Y23" s="43"/>
       <c r="Z23" s="44"/>
       <c r="AA23" s="45"/>
@@ -5529,20 +5535,20 @@
       <c r="BN23" s="76"/>
     </row>
     <row r="24" spans="1:66" ht="12" customHeight="1">
-      <c r="A24" s="159">
+      <c r="A24" s="158">
         <v>11</v>
       </c>
       <c r="B24" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="188" t="s">
+      <c r="C24" s="207" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="189"/>
-      <c r="E24" s="185" t="s">
+      <c r="D24" s="208"/>
+      <c r="E24" s="221" t="s">
         <v>49</v>
       </c>
-      <c r="F24" s="187"/>
+      <c r="F24" s="222"/>
       <c r="G24" s="50"/>
       <c r="H24" s="62"/>
       <c r="I24" s="62"/>
@@ -5551,22 +5557,22 @@
       <c r="L24" s="16"/>
       <c r="M24" s="22"/>
       <c r="N24" s="67"/>
-      <c r="O24" s="120"/>
-      <c r="P24" s="120"/>
-      <c r="Q24" s="120"/>
-      <c r="R24" s="141"/>
+      <c r="O24" s="119"/>
+      <c r="P24" s="119"/>
+      <c r="Q24" s="119"/>
+      <c r="R24" s="140"/>
       <c r="S24" s="16"/>
       <c r="T24" s="22"/>
       <c r="U24" s="22"/>
       <c r="V24" s="41"/>
-      <c r="W24" s="131"/>
+      <c r="W24" s="130"/>
       <c r="X24" s="41"/>
-      <c r="Y24" s="120"/>
+      <c r="Y24" s="119"/>
       <c r="Z24" s="16"/>
       <c r="AA24" s="22"/>
       <c r="AB24" s="22"/>
-      <c r="AC24" s="127"/>
-      <c r="AD24" s="120"/>
+      <c r="AC24" s="126"/>
+      <c r="AD24" s="119"/>
       <c r="AE24" s="9"/>
       <c r="AF24" s="9"/>
       <c r="AG24" s="16"/>
@@ -5605,12 +5611,12 @@
       <c r="BN24" s="72"/>
     </row>
     <row r="25" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A25" s="160"/>
+      <c r="A25" s="159"/>
       <c r="B25" s="36"/>
-      <c r="C25" s="190"/>
-      <c r="D25" s="179"/>
-      <c r="E25" s="183"/>
-      <c r="F25" s="172"/>
+      <c r="C25" s="249"/>
+      <c r="D25" s="201"/>
+      <c r="E25" s="204"/>
+      <c r="F25" s="205"/>
       <c r="G25" s="50"/>
       <c r="H25" s="62"/>
       <c r="I25" s="62"/>
@@ -5619,22 +5625,22 @@
       <c r="L25" s="16"/>
       <c r="M25" s="22"/>
       <c r="N25" s="62"/>
-      <c r="O25" s="120"/>
-      <c r="P25" s="120"/>
-      <c r="Q25" s="120"/>
-      <c r="R25" s="145"/>
+      <c r="O25" s="119"/>
+      <c r="P25" s="119"/>
+      <c r="Q25" s="119"/>
+      <c r="R25" s="144"/>
       <c r="S25" s="16"/>
       <c r="T25" s="22"/>
       <c r="U25" s="22"/>
-      <c r="V25" s="120"/>
-      <c r="W25" s="120"/>
-      <c r="X25" s="120"/>
-      <c r="Y25" s="120"/>
+      <c r="V25" s="119"/>
+      <c r="W25" s="119"/>
+      <c r="X25" s="119"/>
+      <c r="Y25" s="119"/>
       <c r="Z25" s="16"/>
       <c r="AA25" s="22"/>
       <c r="AB25" s="22"/>
-      <c r="AC25" s="120"/>
-      <c r="AD25" s="120"/>
+      <c r="AC25" s="119"/>
+      <c r="AD25" s="119"/>
       <c r="AE25" s="9"/>
       <c r="AF25" s="9"/>
       <c r="AG25" s="16"/>
@@ -5673,18 +5679,18 @@
       <c r="BN25" s="72"/>
     </row>
     <row r="26" spans="1:66" ht="12" customHeight="1">
-      <c r="A26" s="159">
+      <c r="A26" s="158">
         <v>12</v>
       </c>
       <c r="B26" s="36"/>
-      <c r="C26" s="174" t="s">
+      <c r="C26" s="224" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="175"/>
-      <c r="E26" s="182" t="s">
+      <c r="D26" s="225"/>
+      <c r="E26" s="160" t="s">
         <v>59</v>
       </c>
-      <c r="F26" s="170"/>
+      <c r="F26" s="223"/>
       <c r="G26" s="50"/>
       <c r="H26" s="62"/>
       <c r="I26" s="62"/>
@@ -5693,22 +5699,22 @@
       <c r="L26" s="16"/>
       <c r="M26" s="22"/>
       <c r="N26" s="62"/>
-      <c r="O26" s="120"/>
-      <c r="P26" s="120"/>
-      <c r="Q26" s="120"/>
-      <c r="R26" s="145"/>
+      <c r="O26" s="119"/>
+      <c r="P26" s="119"/>
+      <c r="Q26" s="119"/>
+      <c r="R26" s="144"/>
       <c r="S26" s="16"/>
       <c r="T26" s="22"/>
       <c r="U26" s="22"/>
       <c r="V26" s="41"/>
-      <c r="W26" s="131"/>
+      <c r="W26" s="130"/>
       <c r="X26" s="41"/>
-      <c r="Y26" s="120"/>
+      <c r="Y26" s="119"/>
       <c r="Z26" s="16"/>
       <c r="AA26" s="22"/>
       <c r="AB26" s="22"/>
-      <c r="AC26" s="127"/>
-      <c r="AD26" s="120"/>
+      <c r="AC26" s="126"/>
+      <c r="AD26" s="119"/>
       <c r="AE26" s="9"/>
       <c r="AF26" s="9"/>
       <c r="AG26" s="16"/>
@@ -5747,12 +5753,12 @@
       <c r="BN26" s="72"/>
     </row>
     <row r="27" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A27" s="160"/>
+      <c r="A27" s="159"/>
       <c r="B27" s="36"/>
-      <c r="C27" s="190"/>
-      <c r="D27" s="179"/>
-      <c r="E27" s="183"/>
-      <c r="F27" s="172"/>
+      <c r="C27" s="249"/>
+      <c r="D27" s="201"/>
+      <c r="E27" s="204"/>
+      <c r="F27" s="205"/>
       <c r="G27" s="50"/>
       <c r="H27" s="62"/>
       <c r="I27" s="62"/>
@@ -5761,22 +5767,22 @@
       <c r="L27" s="16"/>
       <c r="M27" s="22"/>
       <c r="N27" s="62"/>
-      <c r="O27" s="120"/>
-      <c r="P27" s="120"/>
-      <c r="Q27" s="120"/>
-      <c r="R27" s="145"/>
+      <c r="O27" s="119"/>
+      <c r="P27" s="119"/>
+      <c r="Q27" s="119"/>
+      <c r="R27" s="144"/>
       <c r="S27" s="16"/>
       <c r="T27" s="22"/>
       <c r="U27" s="22"/>
-      <c r="V27" s="120"/>
-      <c r="W27" s="120"/>
-      <c r="X27" s="120"/>
-      <c r="Y27" s="120"/>
+      <c r="V27" s="119"/>
+      <c r="W27" s="119"/>
+      <c r="X27" s="119"/>
+      <c r="Y27" s="119"/>
       <c r="Z27" s="16"/>
       <c r="AA27" s="22"/>
       <c r="AB27" s="22"/>
-      <c r="AC27" s="120"/>
-      <c r="AD27" s="120"/>
+      <c r="AC27" s="119"/>
+      <c r="AD27" s="119"/>
       <c r="AE27" s="9"/>
       <c r="AF27" s="9"/>
       <c r="AG27" s="16"/>
@@ -5815,18 +5821,18 @@
       <c r="BN27" s="72"/>
     </row>
     <row r="28" spans="1:66" ht="12" customHeight="1">
-      <c r="A28" s="159">
+      <c r="A28" s="158">
         <v>13</v>
       </c>
       <c r="B28" s="36"/>
-      <c r="C28" s="174" t="s">
+      <c r="C28" s="224" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="175"/>
-      <c r="E28" s="182" t="s">
+      <c r="D28" s="225"/>
+      <c r="E28" s="160" t="s">
         <v>59</v>
       </c>
-      <c r="F28" s="170" t="s">
+      <c r="F28" s="223" t="s">
         <v>74</v>
       </c>
       <c r="G28" s="50"/>
@@ -5837,22 +5843,22 @@
       <c r="L28" s="16"/>
       <c r="M28" s="22"/>
       <c r="N28" s="62"/>
-      <c r="O28" s="120"/>
-      <c r="P28" s="120"/>
-      <c r="Q28" s="120"/>
-      <c r="R28" s="145"/>
+      <c r="O28" s="119"/>
+      <c r="P28" s="119"/>
+      <c r="Q28" s="119"/>
+      <c r="R28" s="144"/>
       <c r="S28" s="16"/>
       <c r="T28" s="22"/>
       <c r="U28" s="22"/>
-      <c r="V28" s="120"/>
+      <c r="V28" s="119"/>
       <c r="W28" s="41"/>
       <c r="X28" s="41"/>
-      <c r="Y28" s="120"/>
+      <c r="Y28" s="119"/>
       <c r="Z28" s="16"/>
       <c r="AA28" s="22"/>
       <c r="AB28" s="22"/>
-      <c r="AC28" s="127"/>
-      <c r="AD28" s="120"/>
+      <c r="AC28" s="126"/>
+      <c r="AD28" s="119"/>
       <c r="AE28" s="9"/>
       <c r="AF28" s="9"/>
       <c r="AG28" s="16"/>
@@ -5891,12 +5897,12 @@
       <c r="BN28" s="72"/>
     </row>
     <row r="29" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A29" s="160"/>
+      <c r="A29" s="159"/>
       <c r="B29" s="36"/>
-      <c r="C29" s="176"/>
-      <c r="D29" s="177"/>
-      <c r="E29" s="186"/>
-      <c r="F29" s="171"/>
+      <c r="C29" s="202"/>
+      <c r="D29" s="203"/>
+      <c r="E29" s="161"/>
+      <c r="F29" s="206"/>
       <c r="G29" s="50"/>
       <c r="H29" s="62"/>
       <c r="I29" s="62"/>
@@ -5906,9 +5912,9 @@
       <c r="M29" s="22"/>
       <c r="N29" s="62"/>
       <c r="O29" s="62"/>
-      <c r="P29" s="120"/>
-      <c r="Q29" s="120"/>
-      <c r="R29" s="142"/>
+      <c r="P29" s="119"/>
+      <c r="Q29" s="119"/>
+      <c r="R29" s="141"/>
       <c r="S29" s="16"/>
       <c r="T29" s="22"/>
       <c r="U29" s="22"/>
@@ -5927,7 +5933,7 @@
       <c r="AH29" s="22"/>
       <c r="AI29" s="9"/>
       <c r="AJ29" s="72"/>
-      <c r="AK29" s="156"/>
+      <c r="AK29" s="155"/>
       <c r="AL29" s="9"/>
       <c r="AM29" s="9"/>
       <c r="AN29" s="16"/>
@@ -5959,18 +5965,18 @@
       <c r="BN29" s="72"/>
     </row>
     <row r="30" spans="1:66" ht="12" customHeight="1">
-      <c r="A30" s="159">
+      <c r="A30" s="158">
         <v>14</v>
       </c>
-      <c r="B30" s="115"/>
-      <c r="C30" s="161" t="s">
+      <c r="B30" s="114"/>
+      <c r="C30" s="162" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="162"/>
-      <c r="E30" s="182" t="s">
+      <c r="D30" s="163"/>
+      <c r="E30" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="F30" s="170" t="s">
+      <c r="F30" s="223" t="s">
         <v>74</v>
       </c>
       <c r="G30" s="51"/>
@@ -5984,7 +5990,7 @@
       <c r="O30" s="106"/>
       <c r="P30" s="106"/>
       <c r="Q30" s="106"/>
-      <c r="R30" s="138"/>
+      <c r="R30" s="137"/>
       <c r="S30" s="13"/>
       <c r="T30" s="19"/>
       <c r="U30" s="19"/>
@@ -5995,7 +6001,7 @@
       <c r="Z30" s="13"/>
       <c r="AA30" s="19"/>
       <c r="AB30" s="19"/>
-      <c r="AC30" s="124"/>
+      <c r="AC30" s="123"/>
       <c r="AD30" s="106"/>
       <c r="AE30" s="7"/>
       <c r="AF30" s="7"/>
@@ -6035,12 +6041,12 @@
       <c r="BN30" s="73"/>
     </row>
     <row r="31" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A31" s="160"/>
+      <c r="A31" s="159"/>
       <c r="B31" s="36"/>
-      <c r="C31" s="163"/>
-      <c r="D31" s="164"/>
-      <c r="E31" s="183"/>
-      <c r="F31" s="172"/>
+      <c r="C31" s="251"/>
+      <c r="D31" s="252"/>
+      <c r="E31" s="204"/>
+      <c r="F31" s="205"/>
       <c r="G31" s="52"/>
       <c r="H31" s="64"/>
       <c r="I31" s="64"/>
@@ -6049,16 +6055,16 @@
       <c r="L31" s="25"/>
       <c r="M31" s="26"/>
       <c r="N31" s="64"/>
-      <c r="O31" s="119"/>
-      <c r="P31" s="119"/>
-      <c r="Q31" s="119"/>
-      <c r="R31" s="146"/>
+      <c r="O31" s="118"/>
+      <c r="P31" s="118"/>
+      <c r="Q31" s="118"/>
+      <c r="R31" s="145"/>
       <c r="S31" s="25"/>
       <c r="T31" s="26"/>
       <c r="U31" s="26"/>
-      <c r="V31" s="119"/>
-      <c r="W31" s="119"/>
-      <c r="X31" s="119"/>
+      <c r="V31" s="118"/>
+      <c r="W31" s="118"/>
+      <c r="X31" s="118"/>
       <c r="Y31" s="32"/>
       <c r="Z31" s="25"/>
       <c r="AA31" s="26"/>
@@ -6070,8 +6076,8 @@
       <c r="AG31" s="25"/>
       <c r="AH31" s="26"/>
       <c r="AI31" s="32"/>
-      <c r="AJ31" s="154"/>
-      <c r="AK31" s="155"/>
+      <c r="AJ31" s="153"/>
+      <c r="AK31" s="154"/>
       <c r="AL31" s="32"/>
       <c r="AM31" s="24"/>
       <c r="AN31" s="25"/>
@@ -6103,18 +6109,18 @@
       <c r="BN31" s="74"/>
     </row>
     <row r="32" spans="1:66" ht="12" customHeight="1">
-      <c r="A32" s="159">
+      <c r="A32" s="158">
         <v>15</v>
       </c>
       <c r="B32" s="36"/>
-      <c r="C32" s="165" t="s">
+      <c r="C32" s="253" t="s">
         <v>69</v>
       </c>
-      <c r="D32" s="166"/>
-      <c r="E32" s="182" t="s">
+      <c r="D32" s="254"/>
+      <c r="E32" s="160" t="s">
         <v>59</v>
       </c>
-      <c r="F32" s="170"/>
+      <c r="F32" s="223"/>
       <c r="G32" s="52"/>
       <c r="H32" s="64"/>
       <c r="I32" s="64"/>
@@ -6123,22 +6129,22 @@
       <c r="L32" s="25"/>
       <c r="M32" s="26"/>
       <c r="N32" s="64"/>
-      <c r="O32" s="119"/>
-      <c r="P32" s="119"/>
-      <c r="Q32" s="119"/>
-      <c r="R32" s="146"/>
+      <c r="O32" s="118"/>
+      <c r="P32" s="118"/>
+      <c r="Q32" s="118"/>
+      <c r="R32" s="145"/>
       <c r="S32" s="25"/>
       <c r="T32" s="26"/>
       <c r="U32" s="26"/>
-      <c r="V32" s="119"/>
-      <c r="W32" s="119"/>
+      <c r="V32" s="118"/>
+      <c r="W32" s="118"/>
       <c r="X32" s="42"/>
       <c r="Y32" s="42"/>
       <c r="Z32" s="25"/>
       <c r="AA32" s="26"/>
       <c r="AB32" s="26"/>
-      <c r="AC32" s="133"/>
-      <c r="AD32" s="119"/>
+      <c r="AC32" s="132"/>
+      <c r="AD32" s="118"/>
       <c r="AE32" s="24"/>
       <c r="AF32" s="24"/>
       <c r="AG32" s="25"/>
@@ -6177,12 +6183,12 @@
       <c r="BN32" s="74"/>
     </row>
     <row r="33" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A33" s="160"/>
+      <c r="A33" s="159"/>
       <c r="B33" s="36"/>
-      <c r="C33" s="167"/>
-      <c r="D33" s="166"/>
-      <c r="E33" s="183"/>
-      <c r="F33" s="172"/>
+      <c r="C33" s="255"/>
+      <c r="D33" s="254"/>
+      <c r="E33" s="204"/>
+      <c r="F33" s="205"/>
       <c r="G33" s="52"/>
       <c r="H33" s="64"/>
       <c r="I33" s="64"/>
@@ -6191,22 +6197,22 @@
       <c r="L33" s="25"/>
       <c r="M33" s="26"/>
       <c r="N33" s="64"/>
-      <c r="O33" s="119"/>
-      <c r="P33" s="119"/>
-      <c r="Q33" s="119"/>
-      <c r="R33" s="146"/>
+      <c r="O33" s="118"/>
+      <c r="P33" s="118"/>
+      <c r="Q33" s="118"/>
+      <c r="R33" s="145"/>
       <c r="S33" s="25"/>
       <c r="T33" s="26"/>
       <c r="U33" s="26"/>
-      <c r="V33" s="119"/>
-      <c r="W33" s="119"/>
-      <c r="X33" s="119"/>
-      <c r="Y33" s="119"/>
+      <c r="V33" s="118"/>
+      <c r="W33" s="118"/>
+      <c r="X33" s="118"/>
+      <c r="Y33" s="118"/>
       <c r="Z33" s="25"/>
       <c r="AA33" s="26"/>
       <c r="AB33" s="26"/>
-      <c r="AC33" s="119"/>
-      <c r="AD33" s="119"/>
+      <c r="AC33" s="118"/>
+      <c r="AD33" s="118"/>
       <c r="AE33" s="24"/>
       <c r="AF33" s="24"/>
       <c r="AG33" s="25"/>
@@ -6245,18 +6251,18 @@
       <c r="BN33" s="74"/>
     </row>
     <row r="34" spans="1:66" ht="12" customHeight="1">
-      <c r="A34" s="159">
+      <c r="A34" s="158">
         <v>16</v>
       </c>
       <c r="B34" s="36"/>
-      <c r="C34" s="161" t="s">
+      <c r="C34" s="162" t="s">
         <v>67</v>
       </c>
-      <c r="D34" s="162"/>
-      <c r="E34" s="182" t="s">
+      <c r="D34" s="163"/>
+      <c r="E34" s="160" t="s">
         <v>59</v>
       </c>
-      <c r="F34" s="170"/>
+      <c r="F34" s="223"/>
       <c r="G34" s="52"/>
       <c r="H34" s="64"/>
       <c r="I34" s="64"/>
@@ -6265,22 +6271,22 @@
       <c r="L34" s="25"/>
       <c r="M34" s="26"/>
       <c r="N34" s="64"/>
-      <c r="O34" s="119"/>
-      <c r="P34" s="119"/>
-      <c r="Q34" s="119"/>
-      <c r="R34" s="146"/>
+      <c r="O34" s="118"/>
+      <c r="P34" s="118"/>
+      <c r="Q34" s="118"/>
+      <c r="R34" s="145"/>
       <c r="S34" s="25"/>
       <c r="T34" s="26"/>
       <c r="U34" s="26"/>
-      <c r="V34" s="119"/>
-      <c r="W34" s="119"/>
+      <c r="V34" s="118"/>
+      <c r="W34" s="118"/>
       <c r="X34" s="42"/>
       <c r="Y34" s="42"/>
       <c r="Z34" s="25"/>
       <c r="AA34" s="26"/>
       <c r="AB34" s="26"/>
-      <c r="AC34" s="133"/>
-      <c r="AD34" s="119"/>
+      <c r="AC34" s="132"/>
+      <c r="AD34" s="118"/>
       <c r="AE34" s="24"/>
       <c r="AF34" s="24"/>
       <c r="AG34" s="25"/>
@@ -6319,12 +6325,12 @@
       <c r="BN34" s="74"/>
     </row>
     <row r="35" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A35" s="160"/>
+      <c r="A35" s="159"/>
       <c r="B35" s="36"/>
-      <c r="C35" s="168"/>
-      <c r="D35" s="169"/>
-      <c r="E35" s="184"/>
-      <c r="F35" s="173"/>
+      <c r="C35" s="164"/>
+      <c r="D35" s="165"/>
+      <c r="E35" s="250"/>
+      <c r="F35" s="228"/>
       <c r="G35" s="52"/>
       <c r="H35" s="64"/>
       <c r="I35" s="64"/>
@@ -6336,7 +6342,7 @@
       <c r="O35" s="64"/>
       <c r="P35" s="64"/>
       <c r="Q35" s="64"/>
-      <c r="R35" s="143"/>
+      <c r="R35" s="142"/>
       <c r="S35" s="25"/>
       <c r="T35" s="26"/>
       <c r="U35" s="26"/>
@@ -6387,20 +6393,20 @@
       <c r="BN35" s="74"/>
     </row>
     <row r="36" spans="1:66" ht="12" customHeight="1">
-      <c r="A36" s="159">
+      <c r="A36" s="158">
         <v>17</v>
       </c>
       <c r="B36" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="203" t="s">
+      <c r="C36" s="170" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="204"/>
-      <c r="E36" s="200" t="s">
+      <c r="D36" s="171"/>
+      <c r="E36" s="172" t="s">
         <v>49</v>
       </c>
-      <c r="F36" s="187" t="s">
+      <c r="F36" s="222" t="s">
         <v>75</v>
       </c>
       <c r="G36" s="38"/>
@@ -6414,7 +6420,7 @@
       <c r="O36" s="65"/>
       <c r="P36" s="65"/>
       <c r="Q36" s="65"/>
-      <c r="R36" s="141"/>
+      <c r="R36" s="140"/>
       <c r="S36" s="15"/>
       <c r="T36" s="21"/>
       <c r="U36" s="21"/>
@@ -6427,12 +6433,12 @@
       <c r="AB36" s="21"/>
       <c r="AC36" s="40"/>
       <c r="AD36" s="40"/>
-      <c r="AE36" s="129"/>
+      <c r="AE36" s="128"/>
       <c r="AF36" s="40"/>
       <c r="AG36" s="15"/>
       <c r="AH36" s="21"/>
-      <c r="AI36" s="126"/>
-      <c r="AJ36" s="149"/>
+      <c r="AI36" s="125"/>
+      <c r="AJ36" s="148"/>
       <c r="AK36" s="86"/>
       <c r="AL36" s="6"/>
       <c r="AM36" s="6"/>
@@ -6465,12 +6471,12 @@
       <c r="BN36" s="75"/>
     </row>
     <row r="37" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A37" s="160"/>
+      <c r="A37" s="159"/>
       <c r="B37" s="36"/>
-      <c r="C37" s="195"/>
-      <c r="D37" s="196"/>
-      <c r="E37" s="192"/>
-      <c r="F37" s="171"/>
+      <c r="C37" s="168"/>
+      <c r="D37" s="169"/>
+      <c r="E37" s="173"/>
+      <c r="F37" s="206"/>
       <c r="G37" s="52"/>
       <c r="H37" s="64"/>
       <c r="I37" s="64"/>
@@ -6482,14 +6488,14 @@
       <c r="O37" s="64"/>
       <c r="P37" s="64"/>
       <c r="Q37" s="64"/>
-      <c r="R37" s="144"/>
+      <c r="R37" s="143"/>
       <c r="S37" s="25"/>
       <c r="T37" s="26"/>
       <c r="U37" s="26"/>
-      <c r="V37" s="119"/>
-      <c r="W37" s="119"/>
-      <c r="X37" s="119"/>
-      <c r="Y37" s="119"/>
+      <c r="V37" s="118"/>
+      <c r="W37" s="118"/>
+      <c r="X37" s="118"/>
+      <c r="Y37" s="118"/>
       <c r="Z37" s="25"/>
       <c r="AA37" s="26"/>
       <c r="AB37" s="26"/>
@@ -6500,7 +6506,7 @@
       <c r="AG37" s="25"/>
       <c r="AH37" s="26"/>
       <c r="AI37" s="24"/>
-      <c r="AJ37" s="150"/>
+      <c r="AJ37" s="149"/>
       <c r="AK37" s="85"/>
       <c r="AL37" s="32"/>
       <c r="AM37" s="32"/>
@@ -6533,18 +6539,18 @@
       <c r="BN37" s="74"/>
     </row>
     <row r="38" spans="1:66" ht="12" customHeight="1">
-      <c r="A38" s="159">
+      <c r="A38" s="158">
         <v>18</v>
       </c>
       <c r="B38" s="36"/>
-      <c r="C38" s="221" t="s">
+      <c r="C38" s="213" t="s">
         <v>25</v>
       </c>
-      <c r="D38" s="194"/>
-      <c r="E38" s="222" t="s">
+      <c r="D38" s="214"/>
+      <c r="E38" s="226" t="s">
         <v>49</v>
       </c>
-      <c r="F38" s="170" t="s">
+      <c r="F38" s="223" t="s">
         <v>74</v>
       </c>
       <c r="G38" s="51"/>
@@ -6571,12 +6577,12 @@
       <c r="AB38" s="19"/>
       <c r="AC38" s="106"/>
       <c r="AD38" s="30"/>
-      <c r="AE38" s="130"/>
+      <c r="AE38" s="129"/>
       <c r="AF38" s="30"/>
       <c r="AG38" s="13"/>
       <c r="AH38" s="19"/>
-      <c r="AI38" s="124"/>
-      <c r="AJ38" s="117"/>
+      <c r="AI38" s="123"/>
+      <c r="AJ38" s="116"/>
       <c r="AK38" s="84"/>
       <c r="AL38" s="7"/>
       <c r="AM38" s="7"/>
@@ -6609,12 +6615,12 @@
       <c r="BN38" s="73"/>
     </row>
     <row r="39" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A39" s="160"/>
+      <c r="A39" s="159"/>
       <c r="B39" s="36"/>
-      <c r="C39" s="195"/>
-      <c r="D39" s="196"/>
-      <c r="E39" s="192"/>
-      <c r="F39" s="171"/>
+      <c r="C39" s="168"/>
+      <c r="D39" s="169"/>
+      <c r="E39" s="173"/>
+      <c r="F39" s="206"/>
       <c r="G39" s="52"/>
       <c r="H39" s="24"/>
       <c r="I39" s="24"/>
@@ -6630,10 +6636,10 @@
       <c r="S39" s="25"/>
       <c r="T39" s="26"/>
       <c r="U39" s="26"/>
-      <c r="V39" s="119"/>
-      <c r="W39" s="119"/>
-      <c r="X39" s="119"/>
-      <c r="Y39" s="119"/>
+      <c r="V39" s="118"/>
+      <c r="W39" s="118"/>
+      <c r="X39" s="118"/>
+      <c r="Y39" s="118"/>
       <c r="Z39" s="25"/>
       <c r="AA39" s="26"/>
       <c r="AB39" s="26"/>
@@ -6644,7 +6650,7 @@
       <c r="AG39" s="25"/>
       <c r="AH39" s="26"/>
       <c r="AI39" s="24"/>
-      <c r="AJ39" s="150"/>
+      <c r="AJ39" s="149"/>
       <c r="AK39" s="85"/>
       <c r="AL39" s="24"/>
       <c r="AM39" s="24"/>
@@ -6677,18 +6683,18 @@
       <c r="BN39" s="74"/>
     </row>
     <row r="40" spans="1:66" ht="12" customHeight="1">
-      <c r="A40" s="159">
+      <c r="A40" s="158">
         <v>19</v>
       </c>
       <c r="B40" s="36"/>
-      <c r="C40" s="221" t="s">
+      <c r="C40" s="213" t="s">
         <v>26</v>
       </c>
-      <c r="D40" s="194"/>
-      <c r="E40" s="222" t="s">
+      <c r="D40" s="214"/>
+      <c r="E40" s="226" t="s">
         <v>49</v>
       </c>
-      <c r="F40" s="170" t="s">
+      <c r="F40" s="223" t="s">
         <v>75</v>
       </c>
       <c r="G40" s="52"/>
@@ -6706,21 +6712,21 @@
       <c r="S40" s="25"/>
       <c r="T40" s="26"/>
       <c r="U40" s="26"/>
-      <c r="V40" s="119"/>
-      <c r="W40" s="119"/>
-      <c r="X40" s="119"/>
-      <c r="Y40" s="119"/>
+      <c r="V40" s="118"/>
+      <c r="W40" s="118"/>
+      <c r="X40" s="118"/>
+      <c r="Y40" s="118"/>
       <c r="Z40" s="25"/>
       <c r="AA40" s="26"/>
       <c r="AB40" s="26"/>
-      <c r="AC40" s="119"/>
+      <c r="AC40" s="118"/>
       <c r="AD40" s="42"/>
-      <c r="AE40" s="132"/>
+      <c r="AE40" s="131"/>
       <c r="AF40" s="42"/>
       <c r="AG40" s="25"/>
       <c r="AH40" s="26"/>
-      <c r="AI40" s="133"/>
-      <c r="AJ40" s="150"/>
+      <c r="AI40" s="132"/>
+      <c r="AJ40" s="149"/>
       <c r="AK40" s="88"/>
       <c r="AL40" s="64"/>
       <c r="AM40" s="64"/>
@@ -6753,12 +6759,12 @@
       <c r="BN40" s="77"/>
     </row>
     <row r="41" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A41" s="160"/>
+      <c r="A41" s="159"/>
       <c r="B41" s="37"/>
-      <c r="C41" s="223"/>
-      <c r="D41" s="224"/>
-      <c r="E41" s="199"/>
-      <c r="F41" s="173"/>
+      <c r="C41" s="215"/>
+      <c r="D41" s="216"/>
+      <c r="E41" s="227"/>
+      <c r="F41" s="228"/>
       <c r="G41" s="54"/>
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
@@ -6795,14 +6801,14 @@
       <c r="AN41" s="17"/>
       <c r="AO41" s="23"/>
       <c r="AP41" s="68"/>
-      <c r="AQ41" s="157"/>
-      <c r="AR41" s="157"/>
+      <c r="AQ41" s="156"/>
+      <c r="AR41" s="156"/>
       <c r="AS41" s="68"/>
-      <c r="AT41" s="157"/>
+      <c r="AT41" s="156"/>
       <c r="AU41" s="17"/>
       <c r="AV41" s="23"/>
       <c r="AW41" s="23"/>
-      <c r="AX41" s="157"/>
+      <c r="AX41" s="156"/>
       <c r="AY41" s="68"/>
       <c r="AZ41" s="68"/>
       <c r="BA41" s="68"/>
@@ -6821,20 +6827,20 @@
       <c r="BN41" s="78"/>
     </row>
     <row r="42" spans="1:66" ht="12" customHeight="1">
-      <c r="A42" s="159">
+      <c r="A42" s="158">
         <v>20</v>
       </c>
       <c r="B42" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C42" s="203" t="s">
+      <c r="C42" s="170" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="204"/>
-      <c r="E42" s="200" t="s">
+      <c r="D42" s="171"/>
+      <c r="E42" s="172" t="s">
         <v>49</v>
       </c>
-      <c r="F42" s="187" t="s">
+      <c r="F42" s="222" t="s">
         <v>74</v>
       </c>
       <c r="G42" s="38"/>
@@ -6899,12 +6905,12 @@
       <c r="BN42" s="79"/>
     </row>
     <row r="43" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A43" s="160"/>
-      <c r="B43" s="115"/>
-      <c r="C43" s="195"/>
-      <c r="D43" s="196"/>
-      <c r="E43" s="192"/>
-      <c r="F43" s="171"/>
+      <c r="A43" s="159"/>
+      <c r="B43" s="114"/>
+      <c r="C43" s="168"/>
+      <c r="D43" s="169"/>
+      <c r="E43" s="173"/>
+      <c r="F43" s="206"/>
       <c r="G43" s="51"/>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
@@ -6937,7 +6943,7 @@
       <c r="AJ43" s="80"/>
       <c r="AK43" s="91"/>
       <c r="AL43" s="63"/>
-      <c r="AM43" s="152"/>
+      <c r="AM43" s="151"/>
       <c r="AN43" s="13"/>
       <c r="AO43" s="19"/>
       <c r="AP43" s="63"/>
@@ -6967,18 +6973,18 @@
       <c r="BN43" s="80"/>
     </row>
     <row r="44" spans="1:66" ht="12" customHeight="1">
-      <c r="A44" s="159">
+      <c r="A44" s="158">
         <v>21</v>
       </c>
-      <c r="B44" s="115"/>
-      <c r="C44" s="193" t="s">
+      <c r="B44" s="114"/>
+      <c r="C44" s="247" t="s">
         <v>50</v>
       </c>
-      <c r="D44" s="194"/>
-      <c r="E44" s="182" t="s">
+      <c r="D44" s="214"/>
+      <c r="E44" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="F44" s="170" t="s">
+      <c r="F44" s="223" t="s">
         <v>75</v>
       </c>
       <c r="G44" s="51"/>
@@ -7010,8 +7016,8 @@
       <c r="AG44" s="13"/>
       <c r="AH44" s="19"/>
       <c r="AI44" s="30"/>
-      <c r="AJ44" s="116"/>
-      <c r="AK44" s="118"/>
+      <c r="AJ44" s="115"/>
+      <c r="AK44" s="117"/>
       <c r="AL44" s="63"/>
       <c r="AM44" s="63"/>
       <c r="AN44" s="13"/>
@@ -7043,12 +7049,12 @@
       <c r="BN44" s="80"/>
     </row>
     <row r="45" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A45" s="160"/>
-      <c r="B45" s="115"/>
-      <c r="C45" s="195"/>
-      <c r="D45" s="196"/>
-      <c r="E45" s="186"/>
-      <c r="F45" s="171"/>
+      <c r="A45" s="159"/>
+      <c r="B45" s="114"/>
+      <c r="C45" s="168"/>
+      <c r="D45" s="169"/>
+      <c r="E45" s="161"/>
+      <c r="F45" s="206"/>
       <c r="G45" s="51"/>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
@@ -7092,15 +7098,15 @@
       <c r="AU45" s="13"/>
       <c r="AV45" s="19"/>
       <c r="AW45" s="19"/>
-      <c r="AX45" s="152"/>
-      <c r="AY45" s="152"/>
-      <c r="AZ45" s="152"/>
-      <c r="BA45" s="152"/>
+      <c r="AX45" s="151"/>
+      <c r="AY45" s="151"/>
+      <c r="AZ45" s="151"/>
+      <c r="BA45" s="151"/>
       <c r="BB45" s="13"/>
       <c r="BC45" s="19"/>
       <c r="BD45" s="63"/>
-      <c r="BE45" s="152"/>
-      <c r="BF45" s="152"/>
+      <c r="BE45" s="151"/>
+      <c r="BF45" s="151"/>
       <c r="BG45" s="63"/>
       <c r="BH45" s="63"/>
       <c r="BI45" s="13"/>
@@ -7111,18 +7117,18 @@
       <c r="BN45" s="80"/>
     </row>
     <row r="46" spans="1:66" ht="12" customHeight="1">
-      <c r="A46" s="159">
+      <c r="A46" s="158">
         <v>22</v>
       </c>
-      <c r="B46" s="115"/>
-      <c r="C46" s="197" t="s">
+      <c r="B46" s="114"/>
+      <c r="C46" s="166" t="s">
         <v>45</v>
       </c>
-      <c r="D46" s="198"/>
-      <c r="E46" s="182" t="s">
+      <c r="D46" s="167"/>
+      <c r="E46" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="F46" s="170"/>
+      <c r="F46" s="223"/>
       <c r="G46" s="51"/>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
@@ -7152,8 +7158,8 @@
       <c r="AG46" s="13"/>
       <c r="AH46" s="19"/>
       <c r="AI46" s="63"/>
-      <c r="AJ46" s="117"/>
-      <c r="AK46" s="118"/>
+      <c r="AJ46" s="116"/>
+      <c r="AK46" s="117"/>
       <c r="AL46" s="30"/>
       <c r="AM46" s="63"/>
       <c r="AN46" s="13"/>
@@ -7185,12 +7191,12 @@
       <c r="BN46" s="80"/>
     </row>
     <row r="47" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A47" s="160"/>
-      <c r="B47" s="115"/>
-      <c r="C47" s="195"/>
-      <c r="D47" s="196"/>
-      <c r="E47" s="186"/>
-      <c r="F47" s="171"/>
+      <c r="A47" s="159"/>
+      <c r="B47" s="114"/>
+      <c r="C47" s="168"/>
+      <c r="D47" s="169"/>
+      <c r="E47" s="161"/>
+      <c r="F47" s="206"/>
       <c r="G47" s="51"/>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
@@ -7253,18 +7259,18 @@
       <c r="BN47" s="80"/>
     </row>
     <row r="48" spans="1:66" ht="12" customHeight="1">
-      <c r="A48" s="159">
+      <c r="A48" s="158">
         <v>23</v>
       </c>
-      <c r="B48" s="115"/>
-      <c r="C48" s="197" t="s">
+      <c r="B48" s="114"/>
+      <c r="C48" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="D48" s="198"/>
-      <c r="E48" s="182" t="s">
+      <c r="D48" s="167"/>
+      <c r="E48" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="F48" s="170"/>
+      <c r="F48" s="223"/>
       <c r="G48" s="51"/>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
@@ -7294,7 +7300,7 @@
       <c r="AG48" s="13"/>
       <c r="AH48" s="19"/>
       <c r="AI48" s="106"/>
-      <c r="AJ48" s="117"/>
+      <c r="AJ48" s="116"/>
       <c r="AK48" s="91"/>
       <c r="AL48" s="30"/>
       <c r="AM48" s="30"/>
@@ -7327,12 +7333,12 @@
       <c r="BN48" s="80"/>
     </row>
     <row r="49" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A49" s="160"/>
-      <c r="B49" s="115"/>
-      <c r="C49" s="195"/>
-      <c r="D49" s="196"/>
-      <c r="E49" s="186"/>
-      <c r="F49" s="171"/>
+      <c r="A49" s="159"/>
+      <c r="B49" s="114"/>
+      <c r="C49" s="168"/>
+      <c r="D49" s="169"/>
+      <c r="E49" s="161"/>
+      <c r="F49" s="206"/>
       <c r="G49" s="51"/>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
@@ -7395,18 +7401,18 @@
       <c r="BN49" s="80"/>
     </row>
     <row r="50" spans="1:66" ht="12" customHeight="1">
-      <c r="A50" s="159">
+      <c r="A50" s="158">
         <v>24</v>
       </c>
-      <c r="B50" s="115"/>
-      <c r="C50" s="197" t="s">
+      <c r="B50" s="114"/>
+      <c r="C50" s="166" t="s">
         <v>51</v>
       </c>
-      <c r="D50" s="198"/>
-      <c r="E50" s="182" t="s">
+      <c r="D50" s="167"/>
+      <c r="E50" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="F50" s="170"/>
+      <c r="F50" s="223"/>
       <c r="G50" s="51"/>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
@@ -7436,15 +7442,15 @@
       <c r="AG50" s="13"/>
       <c r="AH50" s="19"/>
       <c r="AI50" s="106"/>
-      <c r="AJ50" s="117"/>
-      <c r="AK50" s="121"/>
+      <c r="AJ50" s="116"/>
+      <c r="AK50" s="120"/>
       <c r="AL50" s="106"/>
       <c r="AM50" s="63"/>
       <c r="AN50" s="13"/>
       <c r="AO50" s="19"/>
       <c r="AP50" s="30"/>
       <c r="AQ50" s="30"/>
-      <c r="AR50" s="130"/>
+      <c r="AR50" s="129"/>
       <c r="AS50" s="30"/>
       <c r="AT50" s="30"/>
       <c r="AU50" s="13"/>
@@ -7469,12 +7475,12 @@
       <c r="BN50" s="80"/>
     </row>
     <row r="51" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A51" s="160"/>
-      <c r="B51" s="115"/>
-      <c r="C51" s="195"/>
-      <c r="D51" s="196"/>
-      <c r="E51" s="186"/>
-      <c r="F51" s="171"/>
+      <c r="A51" s="159"/>
+      <c r="B51" s="114"/>
+      <c r="C51" s="168"/>
+      <c r="D51" s="169"/>
+      <c r="E51" s="161"/>
+      <c r="F51" s="206"/>
       <c r="G51" s="51"/>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
@@ -7537,18 +7543,18 @@
       <c r="BN51" s="80"/>
     </row>
     <row r="52" spans="1:66" ht="12" customHeight="1">
-      <c r="A52" s="159">
+      <c r="A52" s="158">
         <v>25</v>
       </c>
-      <c r="B52" s="115"/>
-      <c r="C52" s="197" t="s">
+      <c r="B52" s="114"/>
+      <c r="C52" s="166" t="s">
         <v>52</v>
       </c>
-      <c r="D52" s="198"/>
-      <c r="E52" s="182" t="s">
+      <c r="D52" s="167"/>
+      <c r="E52" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="F52" s="170"/>
+      <c r="F52" s="223"/>
       <c r="G52" s="51"/>
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
@@ -7578,15 +7584,15 @@
       <c r="AG52" s="13"/>
       <c r="AH52" s="19"/>
       <c r="AI52" s="63"/>
-      <c r="AJ52" s="117"/>
-      <c r="AK52" s="121"/>
+      <c r="AJ52" s="116"/>
+      <c r="AK52" s="120"/>
       <c r="AL52" s="106"/>
       <c r="AM52" s="106"/>
       <c r="AN52" s="13"/>
       <c r="AO52" s="19"/>
       <c r="AP52" s="30"/>
       <c r="AQ52" s="30"/>
-      <c r="AR52" s="130"/>
+      <c r="AR52" s="129"/>
       <c r="AS52" s="30"/>
       <c r="AT52" s="30"/>
       <c r="AU52" s="13"/>
@@ -7611,12 +7617,12 @@
       <c r="BN52" s="80"/>
     </row>
     <row r="53" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A53" s="160"/>
-      <c r="B53" s="115"/>
-      <c r="C53" s="195"/>
-      <c r="D53" s="196"/>
-      <c r="E53" s="186"/>
-      <c r="F53" s="171"/>
+      <c r="A53" s="159"/>
+      <c r="B53" s="114"/>
+      <c r="C53" s="168"/>
+      <c r="D53" s="169"/>
+      <c r="E53" s="161"/>
+      <c r="F53" s="206"/>
       <c r="G53" s="51"/>
       <c r="H53" s="7"/>
       <c r="I53" s="7"/>
@@ -7679,18 +7685,18 @@
       <c r="BN53" s="80"/>
     </row>
     <row r="54" spans="1:66" ht="12" customHeight="1">
-      <c r="A54" s="159">
+      <c r="A54" s="158">
         <v>26</v>
       </c>
-      <c r="B54" s="115"/>
-      <c r="C54" s="197" t="s">
+      <c r="B54" s="114"/>
+      <c r="C54" s="166" t="s">
         <v>53</v>
       </c>
-      <c r="D54" s="198"/>
-      <c r="E54" s="182" t="s">
+      <c r="D54" s="167"/>
+      <c r="E54" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="F54" s="170"/>
+      <c r="F54" s="223"/>
       <c r="G54" s="51"/>
       <c r="H54" s="7"/>
       <c r="I54" s="7"/>
@@ -7728,7 +7734,7 @@
       <c r="AO54" s="19"/>
       <c r="AP54" s="30"/>
       <c r="AQ54" s="30"/>
-      <c r="AR54" s="130"/>
+      <c r="AR54" s="129"/>
       <c r="AS54" s="30"/>
       <c r="AT54" s="30"/>
       <c r="AU54" s="13"/>
@@ -7753,12 +7759,12 @@
       <c r="BN54" s="80"/>
     </row>
     <row r="55" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A55" s="160"/>
-      <c r="B55" s="115"/>
-      <c r="C55" s="195"/>
-      <c r="D55" s="196"/>
-      <c r="E55" s="186"/>
-      <c r="F55" s="171"/>
+      <c r="A55" s="159"/>
+      <c r="B55" s="114"/>
+      <c r="C55" s="168"/>
+      <c r="D55" s="169"/>
+      <c r="E55" s="161"/>
+      <c r="F55" s="206"/>
       <c r="G55" s="51"/>
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
@@ -7821,18 +7827,18 @@
       <c r="BN55" s="80"/>
     </row>
     <row r="56" spans="1:66" ht="12" customHeight="1">
-      <c r="A56" s="159">
+      <c r="A56" s="158">
         <v>27</v>
       </c>
-      <c r="B56" s="115"/>
-      <c r="C56" s="197" t="s">
+      <c r="B56" s="114"/>
+      <c r="C56" s="166" t="s">
         <v>54</v>
       </c>
-      <c r="D56" s="198"/>
-      <c r="E56" s="182" t="s">
+      <c r="D56" s="167"/>
+      <c r="E56" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="F56" s="219"/>
+      <c r="F56" s="229"/>
       <c r="G56" s="51"/>
       <c r="H56" s="7"/>
       <c r="I56" s="7"/>
@@ -7877,7 +7883,7 @@
       <c r="AV56" s="19"/>
       <c r="AW56" s="19"/>
       <c r="AX56" s="30"/>
-      <c r="AY56" s="130"/>
+      <c r="AY56" s="129"/>
       <c r="AZ56" s="30"/>
       <c r="BA56" s="30"/>
       <c r="BB56" s="13"/>
@@ -7895,12 +7901,12 @@
       <c r="BN56" s="80"/>
     </row>
     <row r="57" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A57" s="160"/>
-      <c r="B57" s="115"/>
-      <c r="C57" s="195"/>
-      <c r="D57" s="196"/>
-      <c r="E57" s="186"/>
-      <c r="F57" s="220"/>
+      <c r="A57" s="159"/>
+      <c r="B57" s="114"/>
+      <c r="C57" s="168"/>
+      <c r="D57" s="169"/>
+      <c r="E57" s="161"/>
+      <c r="F57" s="230"/>
       <c r="G57" s="51"/>
       <c r="H57" s="7"/>
       <c r="I57" s="7"/>
@@ -7963,18 +7969,18 @@
       <c r="BN57" s="80"/>
     </row>
     <row r="58" spans="1:66" ht="12" customHeight="1">
-      <c r="A58" s="159">
+      <c r="A58" s="158">
         <v>28</v>
       </c>
-      <c r="B58" s="115"/>
-      <c r="C58" s="161" t="s">
+      <c r="B58" s="114"/>
+      <c r="C58" s="162" t="s">
         <v>55</v>
       </c>
-      <c r="D58" s="162"/>
-      <c r="E58" s="182" t="s">
+      <c r="D58" s="163"/>
+      <c r="E58" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="F58" s="170"/>
+      <c r="F58" s="223"/>
       <c r="G58" s="51"/>
       <c r="H58" s="7"/>
       <c r="I58" s="7"/>
@@ -8019,7 +8025,7 @@
       <c r="AV58" s="19"/>
       <c r="AW58" s="19"/>
       <c r="AX58" s="30"/>
-      <c r="AY58" s="130"/>
+      <c r="AY58" s="129"/>
       <c r="AZ58" s="30"/>
       <c r="BA58" s="30"/>
       <c r="BB58" s="13"/>
@@ -8037,12 +8043,12 @@
       <c r="BN58" s="80"/>
     </row>
     <row r="59" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A59" s="160"/>
-      <c r="B59" s="115"/>
-      <c r="C59" s="168"/>
-      <c r="D59" s="169"/>
-      <c r="E59" s="184"/>
-      <c r="F59" s="173"/>
+      <c r="A59" s="159"/>
+      <c r="B59" s="114"/>
+      <c r="C59" s="164"/>
+      <c r="D59" s="165"/>
+      <c r="E59" s="250"/>
+      <c r="F59" s="228"/>
       <c r="G59" s="54"/>
       <c r="H59" s="8"/>
       <c r="I59" s="8"/>
@@ -8105,20 +8111,20 @@
       <c r="BN59" s="78"/>
     </row>
     <row r="60" spans="1:66" ht="12" customHeight="1">
-      <c r="A60" s="159">
+      <c r="A60" s="158">
         <v>29</v>
       </c>
-      <c r="B60" s="112" t="s">
+      <c r="B60" s="111" t="s">
         <v>47</v>
       </c>
-      <c r="C60" s="193" t="s">
+      <c r="C60" s="247" t="s">
         <v>50</v>
       </c>
-      <c r="D60" s="194"/>
-      <c r="E60" s="200" t="s">
+      <c r="D60" s="214"/>
+      <c r="E60" s="172" t="s">
         <v>49</v>
       </c>
-      <c r="F60" s="187" t="s">
+      <c r="F60" s="222" t="s">
         <v>75</v>
       </c>
       <c r="G60" s="38"/>
@@ -8183,12 +8189,12 @@
       <c r="BN60" s="79"/>
     </row>
     <row r="61" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A61" s="160"/>
+      <c r="A61" s="159"/>
       <c r="B61" s="36"/>
-      <c r="C61" s="195"/>
-      <c r="D61" s="196"/>
-      <c r="E61" s="192"/>
-      <c r="F61" s="171"/>
+      <c r="C61" s="168"/>
+      <c r="D61" s="169"/>
+      <c r="E61" s="173"/>
+      <c r="F61" s="206"/>
       <c r="G61" s="50"/>
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
@@ -8218,8 +8224,8 @@
       <c r="AG61" s="16"/>
       <c r="AH61" s="22"/>
       <c r="AI61" s="62"/>
-      <c r="AJ61" s="134"/>
-      <c r="AK61" s="135"/>
+      <c r="AJ61" s="133"/>
+      <c r="AK61" s="134"/>
       <c r="AL61" s="62"/>
       <c r="AM61" s="62"/>
       <c r="AN61" s="16"/>
@@ -8240,29 +8246,29 @@
       <c r="BC61" s="22"/>
       <c r="BD61" s="31"/>
       <c r="BE61" s="31"/>
-      <c r="BF61" s="120"/>
-      <c r="BG61" s="120"/>
-      <c r="BH61" s="120"/>
+      <c r="BF61" s="119"/>
+      <c r="BG61" s="119"/>
+      <c r="BH61" s="119"/>
       <c r="BI61" s="16"/>
       <c r="BJ61" s="22"/>
-      <c r="BK61" s="62"/>
-      <c r="BL61" s="62"/>
-      <c r="BM61" s="62"/>
-      <c r="BN61" s="134"/>
+      <c r="BK61" s="126"/>
+      <c r="BL61" s="31"/>
+      <c r="BM61" s="130"/>
+      <c r="BN61" s="133"/>
     </row>
     <row r="62" spans="1:66" ht="12" customHeight="1">
-      <c r="A62" s="159">
+      <c r="A62" s="158">
         <v>30</v>
       </c>
       <c r="B62" s="36"/>
-      <c r="C62" s="197" t="s">
+      <c r="C62" s="166" t="s">
         <v>45</v>
       </c>
-      <c r="D62" s="198"/>
-      <c r="E62" s="191" t="s">
+      <c r="D62" s="167"/>
+      <c r="E62" s="248" t="s">
         <v>49</v>
       </c>
-      <c r="F62" s="172"/>
+      <c r="F62" s="205"/>
       <c r="G62" s="51"/>
       <c r="H62" s="7"/>
       <c r="I62" s="7"/>
@@ -8325,12 +8331,12 @@
       <c r="BN62" s="80"/>
     </row>
     <row r="63" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A63" s="160"/>
+      <c r="A63" s="159"/>
       <c r="B63" s="36"/>
-      <c r="C63" s="195"/>
-      <c r="D63" s="196"/>
-      <c r="E63" s="192"/>
-      <c r="F63" s="171"/>
+      <c r="C63" s="168"/>
+      <c r="D63" s="169"/>
+      <c r="E63" s="173"/>
+      <c r="F63" s="206"/>
       <c r="G63" s="50"/>
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
@@ -8360,8 +8366,8 @@
       <c r="AG63" s="16"/>
       <c r="AH63" s="22"/>
       <c r="AI63" s="62"/>
-      <c r="AJ63" s="134"/>
-      <c r="AK63" s="135"/>
+      <c r="AJ63" s="133"/>
+      <c r="AK63" s="134"/>
       <c r="AL63" s="62"/>
       <c r="AM63" s="62"/>
       <c r="AN63" s="16"/>
@@ -8380,31 +8386,31 @@
       <c r="BA63" s="62"/>
       <c r="BB63" s="16"/>
       <c r="BC63" s="22"/>
-      <c r="BD63" s="120"/>
-      <c r="BE63" s="120"/>
-      <c r="BF63" s="120"/>
-      <c r="BG63" s="120"/>
-      <c r="BH63" s="120"/>
+      <c r="BD63" s="119"/>
+      <c r="BE63" s="119"/>
+      <c r="BF63" s="119"/>
+      <c r="BG63" s="119"/>
+      <c r="BH63" s="119"/>
       <c r="BI63" s="16"/>
       <c r="BJ63" s="22"/>
       <c r="BK63" s="62"/>
       <c r="BL63" s="62"/>
       <c r="BM63" s="62"/>
-      <c r="BN63" s="134"/>
+      <c r="BN63" s="133"/>
     </row>
     <row r="64" spans="1:66" ht="12" customHeight="1">
-      <c r="A64" s="159">
+      <c r="A64" s="158">
         <v>31</v>
       </c>
       <c r="B64" s="36"/>
-      <c r="C64" s="197" t="s">
+      <c r="C64" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="D64" s="198"/>
-      <c r="E64" s="191" t="s">
+      <c r="D64" s="167"/>
+      <c r="E64" s="248" t="s">
         <v>49</v>
       </c>
-      <c r="F64" s="172"/>
+      <c r="F64" s="205"/>
       <c r="G64" s="51"/>
       <c r="H64" s="7"/>
       <c r="I64" s="7"/>
@@ -8467,12 +8473,12 @@
       <c r="BN64" s="80"/>
     </row>
     <row r="65" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A65" s="160"/>
+      <c r="A65" s="159"/>
       <c r="B65" s="36"/>
-      <c r="C65" s="195"/>
-      <c r="D65" s="196"/>
-      <c r="E65" s="192"/>
-      <c r="F65" s="171"/>
+      <c r="C65" s="168"/>
+      <c r="D65" s="169"/>
+      <c r="E65" s="173"/>
+      <c r="F65" s="206"/>
       <c r="G65" s="50"/>
       <c r="H65" s="9"/>
       <c r="I65" s="9"/>
@@ -8502,8 +8508,8 @@
       <c r="AG65" s="16"/>
       <c r="AH65" s="22"/>
       <c r="AI65" s="62"/>
-      <c r="AJ65" s="134"/>
-      <c r="AK65" s="135"/>
+      <c r="AJ65" s="133"/>
+      <c r="AK65" s="134"/>
       <c r="AL65" s="62"/>
       <c r="AM65" s="62"/>
       <c r="AN65" s="16"/>
@@ -8522,31 +8528,31 @@
       <c r="BA65" s="62"/>
       <c r="BB65" s="16"/>
       <c r="BC65" s="22"/>
-      <c r="BD65" s="120"/>
-      <c r="BE65" s="120"/>
-      <c r="BF65" s="120"/>
-      <c r="BG65" s="120"/>
-      <c r="BH65" s="120"/>
+      <c r="BD65" s="119"/>
+      <c r="BE65" s="119"/>
+      <c r="BF65" s="119"/>
+      <c r="BG65" s="119"/>
+      <c r="BH65" s="119"/>
       <c r="BI65" s="16"/>
       <c r="BJ65" s="22"/>
       <c r="BK65" s="62"/>
       <c r="BL65" s="62"/>
       <c r="BM65" s="62"/>
-      <c r="BN65" s="134"/>
+      <c r="BN65" s="133"/>
     </row>
     <row r="66" spans="1:66" ht="12" customHeight="1">
-      <c r="A66" s="159">
+      <c r="A66" s="158">
         <v>32</v>
       </c>
       <c r="B66" s="36"/>
-      <c r="C66" s="197" t="s">
+      <c r="C66" s="166" t="s">
         <v>51</v>
       </c>
-      <c r="D66" s="198"/>
-      <c r="E66" s="191" t="s">
+      <c r="D66" s="167"/>
+      <c r="E66" s="248" t="s">
         <v>49</v>
       </c>
-      <c r="F66" s="172"/>
+      <c r="F66" s="205"/>
       <c r="G66" s="51"/>
       <c r="H66" s="7"/>
       <c r="I66" s="7"/>
@@ -8609,12 +8615,12 @@
       <c r="BN66" s="80"/>
     </row>
     <row r="67" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A67" s="160"/>
+      <c r="A67" s="159"/>
       <c r="B67" s="36"/>
-      <c r="C67" s="195"/>
-      <c r="D67" s="196"/>
-      <c r="E67" s="192"/>
-      <c r="F67" s="171"/>
+      <c r="C67" s="168"/>
+      <c r="D67" s="169"/>
+      <c r="E67" s="173"/>
+      <c r="F67" s="206"/>
       <c r="G67" s="50"/>
       <c r="H67" s="9"/>
       <c r="I67" s="9"/>
@@ -8644,8 +8650,8 @@
       <c r="AG67" s="16"/>
       <c r="AH67" s="22"/>
       <c r="AI67" s="62"/>
-      <c r="AJ67" s="134"/>
-      <c r="AK67" s="135"/>
+      <c r="AJ67" s="133"/>
+      <c r="AK67" s="134"/>
       <c r="AL67" s="62"/>
       <c r="AM67" s="62"/>
       <c r="AN67" s="16"/>
@@ -8664,31 +8670,31 @@
       <c r="BA67" s="62"/>
       <c r="BB67" s="16"/>
       <c r="BC67" s="22"/>
-      <c r="BD67" s="120"/>
-      <c r="BE67" s="120"/>
-      <c r="BF67" s="120"/>
-      <c r="BG67" s="120"/>
-      <c r="BH67" s="120"/>
+      <c r="BD67" s="119"/>
+      <c r="BE67" s="119"/>
+      <c r="BF67" s="119"/>
+      <c r="BG67" s="119"/>
+      <c r="BH67" s="119"/>
       <c r="BI67" s="16"/>
       <c r="BJ67" s="22"/>
       <c r="BK67" s="62"/>
       <c r="BL67" s="62"/>
       <c r="BM67" s="62"/>
-      <c r="BN67" s="134"/>
+      <c r="BN67" s="133"/>
     </row>
     <row r="68" spans="1:66" ht="12" customHeight="1">
-      <c r="A68" s="159">
+      <c r="A68" s="158">
         <v>33</v>
       </c>
       <c r="B68" s="36"/>
-      <c r="C68" s="197" t="s">
+      <c r="C68" s="166" t="s">
         <v>52</v>
       </c>
-      <c r="D68" s="198"/>
-      <c r="E68" s="191" t="s">
+      <c r="D68" s="167"/>
+      <c r="E68" s="248" t="s">
         <v>49</v>
       </c>
-      <c r="F68" s="172"/>
+      <c r="F68" s="205"/>
       <c r="G68" s="51"/>
       <c r="H68" s="7"/>
       <c r="I68" s="7"/>
@@ -8751,12 +8757,12 @@
       <c r="BN68" s="80"/>
     </row>
     <row r="69" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A69" s="160"/>
+      <c r="A69" s="159"/>
       <c r="B69" s="36"/>
-      <c r="C69" s="195"/>
-      <c r="D69" s="196"/>
-      <c r="E69" s="192"/>
-      <c r="F69" s="171"/>
+      <c r="C69" s="168"/>
+      <c r="D69" s="169"/>
+      <c r="E69" s="173"/>
+      <c r="F69" s="206"/>
       <c r="G69" s="50"/>
       <c r="H69" s="9"/>
       <c r="I69" s="9"/>
@@ -8786,8 +8792,8 @@
       <c r="AG69" s="16"/>
       <c r="AH69" s="22"/>
       <c r="AI69" s="62"/>
-      <c r="AJ69" s="134"/>
-      <c r="AK69" s="135"/>
+      <c r="AJ69" s="133"/>
+      <c r="AK69" s="134"/>
       <c r="AL69" s="62"/>
       <c r="AM69" s="62"/>
       <c r="AN69" s="16"/>
@@ -8806,31 +8812,31 @@
       <c r="BA69" s="62"/>
       <c r="BB69" s="16"/>
       <c r="BC69" s="22"/>
-      <c r="BD69" s="120"/>
-      <c r="BE69" s="120"/>
-      <c r="BF69" s="120"/>
-      <c r="BG69" s="120"/>
-      <c r="BH69" s="120"/>
+      <c r="BD69" s="119"/>
+      <c r="BE69" s="119"/>
+      <c r="BF69" s="119"/>
+      <c r="BG69" s="119"/>
+      <c r="BH69" s="119"/>
       <c r="BI69" s="16"/>
       <c r="BJ69" s="22"/>
       <c r="BK69" s="62"/>
       <c r="BL69" s="62"/>
       <c r="BM69" s="62"/>
-      <c r="BN69" s="134"/>
+      <c r="BN69" s="133"/>
     </row>
     <row r="70" spans="1:66" ht="12" customHeight="1">
-      <c r="A70" s="159">
+      <c r="A70" s="158">
         <v>34</v>
       </c>
       <c r="B70" s="36"/>
-      <c r="C70" s="197" t="s">
+      <c r="C70" s="166" t="s">
         <v>53</v>
       </c>
-      <c r="D70" s="198"/>
-      <c r="E70" s="191" t="s">
+      <c r="D70" s="167"/>
+      <c r="E70" s="248" t="s">
         <v>49</v>
       </c>
-      <c r="F70" s="172"/>
+      <c r="F70" s="205"/>
       <c r="G70" s="51"/>
       <c r="H70" s="7"/>
       <c r="I70" s="7"/>
@@ -8893,12 +8899,12 @@
       <c r="BN70" s="80"/>
     </row>
     <row r="71" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A71" s="160"/>
+      <c r="A71" s="159"/>
       <c r="B71" s="36"/>
-      <c r="C71" s="195"/>
-      <c r="D71" s="196"/>
-      <c r="E71" s="192"/>
-      <c r="F71" s="171"/>
+      <c r="C71" s="168"/>
+      <c r="D71" s="169"/>
+      <c r="E71" s="173"/>
+      <c r="F71" s="206"/>
       <c r="G71" s="50"/>
       <c r="H71" s="9"/>
       <c r="I71" s="9"/>
@@ -8928,8 +8934,8 @@
       <c r="AG71" s="16"/>
       <c r="AH71" s="22"/>
       <c r="AI71" s="62"/>
-      <c r="AJ71" s="134"/>
-      <c r="AK71" s="135"/>
+      <c r="AJ71" s="133"/>
+      <c r="AK71" s="134"/>
       <c r="AL71" s="62"/>
       <c r="AM71" s="62"/>
       <c r="AN71" s="16"/>
@@ -8948,31 +8954,31 @@
       <c r="BA71" s="62"/>
       <c r="BB71" s="16"/>
       <c r="BC71" s="22"/>
-      <c r="BD71" s="120"/>
-      <c r="BE71" s="120"/>
-      <c r="BF71" s="120"/>
-      <c r="BG71" s="120"/>
-      <c r="BH71" s="120"/>
+      <c r="BD71" s="119"/>
+      <c r="BE71" s="119"/>
+      <c r="BF71" s="119"/>
+      <c r="BG71" s="119"/>
+      <c r="BH71" s="119"/>
       <c r="BI71" s="16"/>
       <c r="BJ71" s="22"/>
       <c r="BK71" s="62"/>
       <c r="BL71" s="62"/>
       <c r="BM71" s="62"/>
-      <c r="BN71" s="134"/>
+      <c r="BN71" s="133"/>
     </row>
     <row r="72" spans="1:66" ht="12" customHeight="1">
-      <c r="A72" s="159">
+      <c r="A72" s="158">
         <v>35</v>
       </c>
       <c r="B72" s="36"/>
-      <c r="C72" s="197" t="s">
+      <c r="C72" s="166" t="s">
         <v>54</v>
       </c>
-      <c r="D72" s="198"/>
-      <c r="E72" s="191" t="s">
+      <c r="D72" s="167"/>
+      <c r="E72" s="248" t="s">
         <v>49</v>
       </c>
-      <c r="F72" s="172"/>
+      <c r="F72" s="205"/>
       <c r="G72" s="51"/>
       <c r="H72" s="7"/>
       <c r="I72" s="7"/>
@@ -9035,12 +9041,12 @@
       <c r="BN72" s="80"/>
     </row>
     <row r="73" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A73" s="160"/>
+      <c r="A73" s="159"/>
       <c r="B73" s="36"/>
-      <c r="C73" s="195"/>
-      <c r="D73" s="196"/>
-      <c r="E73" s="192"/>
-      <c r="F73" s="171"/>
+      <c r="C73" s="168"/>
+      <c r="D73" s="169"/>
+      <c r="E73" s="173"/>
+      <c r="F73" s="206"/>
       <c r="G73" s="50"/>
       <c r="H73" s="9"/>
       <c r="I73" s="9"/>
@@ -9070,8 +9076,8 @@
       <c r="AG73" s="16"/>
       <c r="AH73" s="22"/>
       <c r="AI73" s="62"/>
-      <c r="AJ73" s="134"/>
-      <c r="AK73" s="135"/>
+      <c r="AJ73" s="133"/>
+      <c r="AK73" s="134"/>
       <c r="AL73" s="62"/>
       <c r="AM73" s="62"/>
       <c r="AN73" s="16"/>
@@ -9090,31 +9096,31 @@
       <c r="BA73" s="62"/>
       <c r="BB73" s="16"/>
       <c r="BC73" s="22"/>
-      <c r="BD73" s="120"/>
-      <c r="BE73" s="120"/>
-      <c r="BF73" s="120"/>
-      <c r="BG73" s="120"/>
-      <c r="BH73" s="120"/>
+      <c r="BD73" s="119"/>
+      <c r="BE73" s="119"/>
+      <c r="BF73" s="119"/>
+      <c r="BG73" s="119"/>
+      <c r="BH73" s="119"/>
       <c r="BI73" s="16"/>
       <c r="BJ73" s="22"/>
       <c r="BK73" s="62"/>
       <c r="BL73" s="62"/>
       <c r="BM73" s="62"/>
-      <c r="BN73" s="134"/>
+      <c r="BN73" s="133"/>
     </row>
     <row r="74" spans="1:66" ht="12" customHeight="1">
-      <c r="A74" s="159">
+      <c r="A74" s="158">
         <v>36</v>
       </c>
       <c r="B74" s="36"/>
-      <c r="C74" s="161" t="s">
+      <c r="C74" s="162" t="s">
         <v>55</v>
       </c>
-      <c r="D74" s="162"/>
-      <c r="E74" s="191" t="s">
+      <c r="D74" s="163"/>
+      <c r="E74" s="248" t="s">
         <v>49</v>
       </c>
-      <c r="F74" s="172"/>
+      <c r="F74" s="205"/>
       <c r="G74" s="95"/>
       <c r="H74" s="99"/>
       <c r="I74" s="99"/>
@@ -9144,8 +9150,8 @@
       <c r="AG74" s="97"/>
       <c r="AH74" s="98"/>
       <c r="AI74" s="96"/>
-      <c r="AJ74" s="110"/>
-      <c r="AK74" s="111"/>
+      <c r="AJ74" s="109"/>
+      <c r="AK74" s="110"/>
       <c r="AL74" s="96"/>
       <c r="AM74" s="96"/>
       <c r="AN74" s="97"/>
@@ -9164,25 +9170,25 @@
       <c r="BA74" s="96"/>
       <c r="BB74" s="97"/>
       <c r="BC74" s="98"/>
-      <c r="BD74" s="136"/>
-      <c r="BE74" s="136"/>
-      <c r="BF74" s="114"/>
-      <c r="BG74" s="114"/>
-      <c r="BH74" s="114"/>
+      <c r="BD74" s="135"/>
+      <c r="BE74" s="135"/>
+      <c r="BF74" s="113"/>
+      <c r="BG74" s="113"/>
+      <c r="BH74" s="113"/>
       <c r="BI74" s="97"/>
       <c r="BJ74" s="98"/>
       <c r="BK74" s="96"/>
       <c r="BL74" s="96"/>
       <c r="BM74" s="96"/>
-      <c r="BN74" s="110"/>
+      <c r="BN74" s="109"/>
     </row>
     <row r="75" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A75" s="160"/>
-      <c r="B75" s="113"/>
-      <c r="C75" s="168"/>
-      <c r="D75" s="169"/>
-      <c r="E75" s="199"/>
-      <c r="F75" s="173"/>
+      <c r="A75" s="159"/>
+      <c r="B75" s="112"/>
+      <c r="C75" s="164"/>
+      <c r="D75" s="165"/>
+      <c r="E75" s="227"/>
+      <c r="F75" s="228"/>
       <c r="G75" s="54"/>
       <c r="H75" s="8"/>
       <c r="I75" s="8"/>
@@ -9245,20 +9251,20 @@
       <c r="BN75" s="78"/>
     </row>
     <row r="76" spans="1:66" ht="12" customHeight="1">
-      <c r="A76" s="159">
+      <c r="A76" s="158">
         <v>37</v>
       </c>
-      <c r="B76" s="201" t="s">
+      <c r="B76" s="231" t="s">
         <v>34</v>
       </c>
-      <c r="C76" s="211" t="s">
+      <c r="C76" s="239" t="s">
         <v>34</v>
       </c>
-      <c r="D76" s="212"/>
-      <c r="E76" s="207" t="s">
+      <c r="D76" s="240"/>
+      <c r="E76" s="235" t="s">
         <v>49</v>
       </c>
-      <c r="F76" s="216" t="s">
+      <c r="F76" s="244" t="s">
         <v>75</v>
       </c>
       <c r="G76" s="38"/>
@@ -9323,12 +9329,12 @@
       <c r="BN76" s="79"/>
     </row>
     <row r="77" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A77" s="160"/>
-      <c r="B77" s="218"/>
-      <c r="C77" s="213"/>
-      <c r="D77" s="214"/>
-      <c r="E77" s="215"/>
-      <c r="F77" s="217"/>
+      <c r="A77" s="159"/>
+      <c r="B77" s="246"/>
+      <c r="C77" s="241"/>
+      <c r="D77" s="242"/>
+      <c r="E77" s="243"/>
+      <c r="F77" s="245"/>
       <c r="G77" s="51"/>
       <c r="H77" s="7"/>
       <c r="I77" s="7"/>
@@ -9381,30 +9387,30 @@
       <c r="BD77" s="63"/>
       <c r="BE77" s="63"/>
       <c r="BF77" s="63"/>
-      <c r="BG77" s="152"/>
+      <c r="BG77" s="151"/>
       <c r="BH77" s="63"/>
       <c r="BI77" s="13"/>
       <c r="BJ77" s="19"/>
-      <c r="BK77" s="63"/>
+      <c r="BK77" s="303"/>
       <c r="BL77" s="63"/>
       <c r="BM77" s="63"/>
       <c r="BN77" s="80"/>
     </row>
     <row r="78" spans="1:66" ht="12" customHeight="1">
-      <c r="A78" s="159">
+      <c r="A78" s="158">
         <v>38</v>
       </c>
-      <c r="B78" s="201" t="s">
+      <c r="B78" s="231" t="s">
         <v>32</v>
       </c>
-      <c r="C78" s="203" t="s">
+      <c r="C78" s="170" t="s">
         <v>32</v>
       </c>
-      <c r="D78" s="204"/>
-      <c r="E78" s="207" t="s">
+      <c r="D78" s="171"/>
+      <c r="E78" s="235" t="s">
         <v>49</v>
       </c>
-      <c r="F78" s="209" t="s">
+      <c r="F78" s="237" t="s">
         <v>75</v>
       </c>
       <c r="G78" s="38"/>
@@ -9466,15 +9472,15 @@
       <c r="BK78" s="65"/>
       <c r="BL78" s="105"/>
       <c r="BM78" s="40"/>
-      <c r="BN78" s="109"/>
+      <c r="BN78" s="108"/>
     </row>
     <row r="79" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A79" s="160"/>
-      <c r="B79" s="202"/>
-      <c r="C79" s="205"/>
-      <c r="D79" s="206"/>
-      <c r="E79" s="208"/>
-      <c r="F79" s="210"/>
+      <c r="A79" s="159"/>
+      <c r="B79" s="232"/>
+      <c r="C79" s="233"/>
+      <c r="D79" s="234"/>
+      <c r="E79" s="236"/>
+      <c r="F79" s="238"/>
       <c r="G79" s="39"/>
       <c r="H79" s="11"/>
       <c r="I79" s="11"/>
@@ -9528,13 +9534,13 @@
       <c r="BE79" s="69"/>
       <c r="BF79" s="69"/>
       <c r="BG79" s="69"/>
-      <c r="BH79" s="158"/>
+      <c r="BH79" s="157"/>
       <c r="BI79" s="14"/>
       <c r="BJ79" s="20"/>
-      <c r="BK79" s="69"/>
+      <c r="BK79" s="301"/>
       <c r="BL79" s="107"/>
       <c r="BM79" s="107"/>
-      <c r="BN79" s="108"/>
+      <c r="BN79" s="302"/>
     </row>
     <row r="80" spans="1:66">
       <c r="Z80" s="5"/>
@@ -9553,50 +9559,125 @@
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="128"/>
+      <c r="A83" s="127"/>
       <c r="B83" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="125"/>
+      <c r="A84" s="124"/>
       <c r="B84" s="1" t="s">
         <v>57</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="161">
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="C58:D59"/>
-    <mergeCell ref="C48:D49"/>
-    <mergeCell ref="C50:D51"/>
-    <mergeCell ref="C52:D53"/>
-    <mergeCell ref="C54:D55"/>
-    <mergeCell ref="C56:D57"/>
-    <mergeCell ref="C42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G1:AJ1"/>
-    <mergeCell ref="AK1:BN1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="C34:D35"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="C44:D45"/>
+    <mergeCell ref="C46:D47"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="C60:D61"/>
+    <mergeCell ref="C62:D63"/>
+    <mergeCell ref="C64:D65"/>
+    <mergeCell ref="C66:D67"/>
+    <mergeCell ref="C68:D69"/>
+    <mergeCell ref="C70:D71"/>
+    <mergeCell ref="C72:D73"/>
+    <mergeCell ref="C74:D75"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="C76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="C38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="C36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="A38:A39"/>
     <mergeCell ref="C14:D15"/>
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="F14:F15"/>
@@ -9621,112 +9702,37 @@
     <mergeCell ref="C10:D11"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="C36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="C38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="C78:D79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="C76:D77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="C60:D61"/>
-    <mergeCell ref="C62:D63"/>
-    <mergeCell ref="C64:D65"/>
-    <mergeCell ref="C66:D67"/>
-    <mergeCell ref="C68:D69"/>
-    <mergeCell ref="C70:D71"/>
-    <mergeCell ref="C72:D73"/>
-    <mergeCell ref="C74:D75"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="C44:D45"/>
-    <mergeCell ref="C46:D47"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="C34:D35"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G1:AJ1"/>
+    <mergeCell ref="AK1:BN1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="C58:D59"/>
+    <mergeCell ref="C48:D49"/>
+    <mergeCell ref="C50:D51"/>
+    <mergeCell ref="C52:D53"/>
+    <mergeCell ref="C54:D55"/>
+    <mergeCell ref="C56:D57"/>
+    <mergeCell ref="C42:D43"/>
+    <mergeCell ref="E42:E43"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>
@@ -9770,54 +9776,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A1" s="241" t="s">
+      <c r="A1" s="182" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="244" t="s">
+      <c r="B1" s="185" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="247" t="s">
+      <c r="C1" s="188" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="248"/>
-      <c r="E1" s="253" t="s">
+      <c r="D1" s="189"/>
+      <c r="E1" s="194" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="256" t="s">
+      <c r="F1" s="197" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="238"/>
-      <c r="H1" s="239"/>
-      <c r="I1" s="239"/>
-      <c r="J1" s="239"/>
-      <c r="K1" s="239"/>
-      <c r="L1" s="239"/>
-      <c r="M1" s="239"/>
-      <c r="N1" s="239"/>
-      <c r="O1" s="239"/>
-      <c r="P1" s="239"/>
-      <c r="Q1" s="239"/>
-      <c r="R1" s="239"/>
-      <c r="S1" s="239"/>
-      <c r="T1" s="239"/>
-      <c r="U1" s="239"/>
-      <c r="V1" s="239"/>
-      <c r="W1" s="239"/>
-      <c r="X1" s="239"/>
-      <c r="Y1" s="239"/>
-      <c r="Z1" s="239"/>
-      <c r="AA1" s="239"/>
-      <c r="AB1" s="239"/>
-      <c r="AC1" s="239"/>
-      <c r="AD1" s="240"/>
+      <c r="G1" s="179"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
+      <c r="J1" s="180"/>
+      <c r="K1" s="180"/>
+      <c r="L1" s="180"/>
+      <c r="M1" s="180"/>
+      <c r="N1" s="180"/>
+      <c r="O1" s="180"/>
+      <c r="P1" s="180"/>
+      <c r="Q1" s="180"/>
+      <c r="R1" s="180"/>
+      <c r="S1" s="180"/>
+      <c r="T1" s="180"/>
+      <c r="U1" s="180"/>
+      <c r="V1" s="180"/>
+      <c r="W1" s="180"/>
+      <c r="X1" s="180"/>
+      <c r="Y1" s="180"/>
+      <c r="Z1" s="180"/>
+      <c r="AA1" s="180"/>
+      <c r="AB1" s="180"/>
+      <c r="AC1" s="180"/>
+      <c r="AD1" s="181"/>
     </row>
     <row r="2" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A2" s="242"/>
-      <c r="B2" s="245"/>
-      <c r="C2" s="249"/>
-      <c r="D2" s="250"/>
-      <c r="E2" s="254"/>
-      <c r="F2" s="257"/>
+      <c r="A2" s="183"/>
+      <c r="B2" s="186"/>
+      <c r="C2" s="190"/>
+      <c r="D2" s="191"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="198"/>
       <c r="G2" s="46">
         <v>22</v>
       </c>
@@ -9892,12 +9898,12 @@
       </c>
     </row>
     <row r="3" spans="1:30" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="243"/>
-      <c r="B3" s="246"/>
-      <c r="C3" s="259"/>
-      <c r="D3" s="260"/>
-      <c r="E3" s="255"/>
-      <c r="F3" s="258"/>
+      <c r="A3" s="184"/>
+      <c r="B3" s="187"/>
+      <c r="C3" s="299"/>
+      <c r="D3" s="300"/>
+      <c r="E3" s="196"/>
+      <c r="F3" s="199"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -9972,20 +9978,20 @@
       </c>
     </row>
     <row r="4" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A4" s="159">
+      <c r="A4" s="158">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="269" t="s">
+      <c r="C4" s="288" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="270"/>
-      <c r="E4" s="271" t="s">
+      <c r="D4" s="289"/>
+      <c r="E4" s="290" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="273"/>
+      <c r="F4" s="292"/>
       <c r="G4" s="49"/>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
@@ -10008,20 +10014,20 @@
       <c r="Z4" s="12"/>
       <c r="AA4" s="18"/>
       <c r="AB4" s="10"/>
-      <c r="AC4" s="275" t="s">
+      <c r="AC4" s="294" t="s">
         <v>14</v>
       </c>
-      <c r="AD4" s="261" t="s">
+      <c r="AD4" s="281" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A5" s="160"/>
+      <c r="A5" s="159"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="195"/>
-      <c r="D5" s="196"/>
-      <c r="E5" s="272"/>
-      <c r="F5" s="274"/>
+      <c r="C5" s="168"/>
+      <c r="D5" s="169"/>
+      <c r="E5" s="291"/>
+      <c r="F5" s="293"/>
       <c r="G5" s="50"/>
       <c r="H5" s="31"/>
       <c r="I5" s="9"/>
@@ -10044,22 +10050,22 @@
       <c r="Z5" s="16"/>
       <c r="AA5" s="22"/>
       <c r="AB5" s="9"/>
-      <c r="AC5" s="276"/>
-      <c r="AD5" s="262"/>
+      <c r="AC5" s="295"/>
+      <c r="AD5" s="282"/>
     </row>
     <row r="6" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A6" s="264">
+      <c r="A6" s="258">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="221" t="s">
+      <c r="C6" s="213" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="194"/>
-      <c r="E6" s="265" t="s">
+      <c r="D6" s="214"/>
+      <c r="E6" s="284" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="267"/>
+      <c r="F6" s="286"/>
       <c r="G6" s="51"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
@@ -10082,16 +10088,16 @@
       <c r="Z6" s="13"/>
       <c r="AA6" s="19"/>
       <c r="AB6" s="7"/>
-      <c r="AC6" s="276"/>
-      <c r="AD6" s="262"/>
+      <c r="AC6" s="295"/>
+      <c r="AD6" s="282"/>
     </row>
     <row r="7" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A7" s="160"/>
+      <c r="A7" s="159"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="223"/>
-      <c r="D7" s="224"/>
-      <c r="E7" s="266"/>
-      <c r="F7" s="268"/>
+      <c r="C7" s="215"/>
+      <c r="D7" s="216"/>
+      <c r="E7" s="285"/>
+      <c r="F7" s="287"/>
       <c r="G7" s="52"/>
       <c r="H7" s="32"/>
       <c r="I7" s="24"/>
@@ -10114,24 +10120,24 @@
       <c r="Z7" s="25"/>
       <c r="AA7" s="26"/>
       <c r="AB7" s="24"/>
-      <c r="AC7" s="276"/>
-      <c r="AD7" s="262"/>
+      <c r="AC7" s="295"/>
+      <c r="AD7" s="282"/>
     </row>
     <row r="8" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A8" s="278">
+      <c r="A8" s="266">
         <v>3</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="280" t="s">
+      <c r="C8" s="297" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="189"/>
-      <c r="E8" s="281" t="s">
+      <c r="D8" s="208"/>
+      <c r="E8" s="298" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="283"/>
+      <c r="F8" s="276"/>
       <c r="G8" s="38"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -10154,16 +10160,16 @@
       <c r="Z8" s="15"/>
       <c r="AA8" s="21"/>
       <c r="AB8" s="6"/>
-      <c r="AC8" s="276"/>
-      <c r="AD8" s="262"/>
+      <c r="AC8" s="295"/>
+      <c r="AD8" s="282"/>
     </row>
     <row r="9" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A9" s="279"/>
+      <c r="A9" s="267"/>
       <c r="B9" s="37"/>
-      <c r="C9" s="180"/>
-      <c r="D9" s="181"/>
-      <c r="E9" s="282"/>
-      <c r="F9" s="284"/>
+      <c r="C9" s="256"/>
+      <c r="D9" s="257"/>
+      <c r="E9" s="274"/>
+      <c r="F9" s="272"/>
       <c r="G9" s="53"/>
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
@@ -10186,24 +10192,24 @@
       <c r="Z9" s="44"/>
       <c r="AA9" s="45"/>
       <c r="AB9" s="43"/>
-      <c r="AC9" s="276"/>
-      <c r="AD9" s="262"/>
+      <c r="AC9" s="295"/>
+      <c r="AD9" s="282"/>
     </row>
     <row r="10" spans="1:30" ht="12" customHeight="1">
-      <c r="A10" s="285">
+      <c r="A10" s="279">
         <v>4</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="190" t="s">
+      <c r="C10" s="249" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="179"/>
-      <c r="E10" s="286" t="s">
+      <c r="D10" s="201"/>
+      <c r="E10" s="277" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="288"/>
+      <c r="F10" s="278"/>
       <c r="G10" s="50"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -10226,16 +10232,16 @@
       <c r="Z10" s="16"/>
       <c r="AA10" s="22"/>
       <c r="AB10" s="9"/>
-      <c r="AC10" s="276"/>
-      <c r="AD10" s="262"/>
+      <c r="AC10" s="295"/>
+      <c r="AD10" s="282"/>
     </row>
     <row r="11" spans="1:30" ht="12" customHeight="1">
-      <c r="A11" s="279"/>
+      <c r="A11" s="267"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="176"/>
-      <c r="D11" s="177"/>
-      <c r="E11" s="287"/>
-      <c r="F11" s="289"/>
+      <c r="C11" s="202"/>
+      <c r="D11" s="203"/>
+      <c r="E11" s="269"/>
+      <c r="F11" s="271"/>
       <c r="G11" s="50"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -10258,22 +10264,22 @@
       <c r="Z11" s="16"/>
       <c r="AA11" s="22"/>
       <c r="AB11" s="9"/>
-      <c r="AC11" s="276"/>
-      <c r="AD11" s="262"/>
+      <c r="AC11" s="295"/>
+      <c r="AD11" s="282"/>
     </row>
     <row r="12" spans="1:30" ht="12" customHeight="1">
-      <c r="A12" s="278">
+      <c r="A12" s="266">
         <v>5</v>
       </c>
       <c r="B12" s="36"/>
-      <c r="C12" s="221" t="s">
+      <c r="C12" s="213" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="194"/>
-      <c r="E12" s="290" t="s">
+      <c r="D12" s="214"/>
+      <c r="E12" s="280" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="291"/>
+      <c r="F12" s="270"/>
       <c r="G12" s="51"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -10296,16 +10302,16 @@
       <c r="Z12" s="13"/>
       <c r="AA12" s="19"/>
       <c r="AB12" s="7"/>
-      <c r="AC12" s="276"/>
-      <c r="AD12" s="262"/>
+      <c r="AC12" s="295"/>
+      <c r="AD12" s="282"/>
     </row>
     <row r="13" spans="1:30" ht="12" customHeight="1">
-      <c r="A13" s="285"/>
+      <c r="A13" s="279"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="233"/>
-      <c r="D13" s="198"/>
-      <c r="E13" s="286"/>
-      <c r="F13" s="288"/>
+      <c r="C13" s="174"/>
+      <c r="D13" s="167"/>
+      <c r="E13" s="277"/>
+      <c r="F13" s="278"/>
       <c r="G13" s="52"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
@@ -10328,24 +10334,24 @@
       <c r="Z13" s="25"/>
       <c r="AA13" s="26"/>
       <c r="AB13" s="24"/>
-      <c r="AC13" s="276"/>
-      <c r="AD13" s="262"/>
+      <c r="AC13" s="295"/>
+      <c r="AD13" s="282"/>
     </row>
     <row r="14" spans="1:30" ht="12" customHeight="1">
-      <c r="A14" s="292">
+      <c r="A14" s="273">
         <v>6</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="203" t="s">
+      <c r="C14" s="170" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="204"/>
-      <c r="E14" s="293" t="s">
+      <c r="D14" s="171"/>
+      <c r="E14" s="275" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="283"/>
+      <c r="F14" s="276"/>
       <c r="G14" s="38"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -10368,16 +10374,16 @@
       <c r="Z14" s="15"/>
       <c r="AA14" s="21"/>
       <c r="AB14" s="6"/>
-      <c r="AC14" s="276"/>
-      <c r="AD14" s="262"/>
+      <c r="AC14" s="295"/>
+      <c r="AD14" s="282"/>
     </row>
     <row r="15" spans="1:30" ht="12" customHeight="1">
-      <c r="A15" s="292"/>
+      <c r="A15" s="273"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="195"/>
-      <c r="D15" s="196"/>
-      <c r="E15" s="287"/>
-      <c r="F15" s="289"/>
+      <c r="C15" s="168"/>
+      <c r="D15" s="169"/>
+      <c r="E15" s="269"/>
+      <c r="F15" s="271"/>
       <c r="G15" s="52"/>
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
@@ -10400,22 +10406,22 @@
       <c r="Z15" s="25"/>
       <c r="AA15" s="26"/>
       <c r="AB15" s="24"/>
-      <c r="AC15" s="276"/>
-      <c r="AD15" s="262"/>
+      <c r="AC15" s="295"/>
+      <c r="AD15" s="282"/>
     </row>
     <row r="16" spans="1:30" ht="12" customHeight="1">
-      <c r="A16" s="292">
+      <c r="A16" s="273">
         <v>7</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="221" t="s">
+      <c r="C16" s="213" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="194"/>
-      <c r="E16" s="294" t="s">
+      <c r="D16" s="214"/>
+      <c r="E16" s="268" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="291"/>
+      <c r="F16" s="270"/>
       <c r="G16" s="51"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -10438,16 +10444,16 @@
       <c r="Z16" s="13"/>
       <c r="AA16" s="19"/>
       <c r="AB16" s="7"/>
-      <c r="AC16" s="276"/>
-      <c r="AD16" s="262"/>
+      <c r="AC16" s="295"/>
+      <c r="AD16" s="282"/>
     </row>
     <row r="17" spans="1:30" ht="12" customHeight="1">
-      <c r="A17" s="292"/>
+      <c r="A17" s="273"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="195"/>
-      <c r="D17" s="196"/>
-      <c r="E17" s="287"/>
-      <c r="F17" s="289"/>
+      <c r="C17" s="168"/>
+      <c r="D17" s="169"/>
+      <c r="E17" s="269"/>
+      <c r="F17" s="271"/>
       <c r="G17" s="52"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
@@ -10470,22 +10476,22 @@
       <c r="Z17" s="25"/>
       <c r="AA17" s="26"/>
       <c r="AB17" s="24"/>
-      <c r="AC17" s="276"/>
-      <c r="AD17" s="262"/>
+      <c r="AC17" s="295"/>
+      <c r="AD17" s="282"/>
     </row>
     <row r="18" spans="1:30" ht="12" customHeight="1">
-      <c r="A18" s="292">
+      <c r="A18" s="273">
         <v>8</v>
       </c>
       <c r="B18" s="36"/>
-      <c r="C18" s="221" t="s">
+      <c r="C18" s="213" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="194"/>
-      <c r="E18" s="294" t="s">
+      <c r="D18" s="214"/>
+      <c r="E18" s="268" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="291"/>
+      <c r="F18" s="270"/>
       <c r="G18" s="52"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
@@ -10508,16 +10514,16 @@
       <c r="Z18" s="25"/>
       <c r="AA18" s="26"/>
       <c r="AB18" s="24"/>
-      <c r="AC18" s="276"/>
-      <c r="AD18" s="262"/>
+      <c r="AC18" s="295"/>
+      <c r="AD18" s="282"/>
     </row>
     <row r="19" spans="1:30" ht="12" customHeight="1">
-      <c r="A19" s="292"/>
+      <c r="A19" s="273"/>
       <c r="B19" s="37"/>
-      <c r="C19" s="223"/>
-      <c r="D19" s="224"/>
-      <c r="E19" s="282"/>
-      <c r="F19" s="284"/>
+      <c r="C19" s="215"/>
+      <c r="D19" s="216"/>
+      <c r="E19" s="274"/>
+      <c r="F19" s="272"/>
       <c r="G19" s="54"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -10540,24 +10546,24 @@
       <c r="Z19" s="17"/>
       <c r="AA19" s="23"/>
       <c r="AB19" s="8"/>
-      <c r="AC19" s="276"/>
-      <c r="AD19" s="262"/>
+      <c r="AC19" s="295"/>
+      <c r="AD19" s="282"/>
     </row>
     <row r="20" spans="1:30" ht="12" customHeight="1">
-      <c r="A20" s="278">
+      <c r="A20" s="266">
         <v>9</v>
       </c>
       <c r="B20" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="203" t="s">
+      <c r="C20" s="170" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="204"/>
-      <c r="E20" s="293" t="s">
+      <c r="D20" s="171"/>
+      <c r="E20" s="275" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="283"/>
+      <c r="F20" s="276"/>
       <c r="G20" s="38"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -10580,18 +10586,18 @@
       <c r="Z20" s="15"/>
       <c r="AA20" s="21"/>
       <c r="AB20" s="6"/>
-      <c r="AC20" s="276"/>
-      <c r="AD20" s="262"/>
+      <c r="AC20" s="295"/>
+      <c r="AD20" s="282"/>
     </row>
     <row r="21" spans="1:30" ht="12" customHeight="1">
-      <c r="A21" s="279"/>
+      <c r="A21" s="267"/>
       <c r="B21" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="195"/>
-      <c r="D21" s="196"/>
-      <c r="E21" s="287"/>
-      <c r="F21" s="289"/>
+      <c r="C21" s="168"/>
+      <c r="D21" s="169"/>
+      <c r="E21" s="269"/>
+      <c r="F21" s="271"/>
       <c r="G21" s="51"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -10614,22 +10620,22 @@
       <c r="Z21" s="13"/>
       <c r="AA21" s="19"/>
       <c r="AB21" s="7"/>
-      <c r="AC21" s="276"/>
-      <c r="AD21" s="262"/>
+      <c r="AC21" s="295"/>
+      <c r="AD21" s="282"/>
     </row>
     <row r="22" spans="1:30" ht="12" customHeight="1">
-      <c r="A22" s="278">
+      <c r="A22" s="266">
         <v>10</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="193" t="s">
+      <c r="C22" s="247" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="194"/>
-      <c r="E22" s="294" t="s">
+      <c r="D22" s="214"/>
+      <c r="E22" s="268" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="291"/>
+      <c r="F22" s="270"/>
       <c r="G22" s="51"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -10652,16 +10658,16 @@
       <c r="Z22" s="13"/>
       <c r="AA22" s="19"/>
       <c r="AB22" s="7"/>
-      <c r="AC22" s="276"/>
-      <c r="AD22" s="262"/>
+      <c r="AC22" s="295"/>
+      <c r="AD22" s="282"/>
     </row>
     <row r="23" spans="1:30" ht="12" customHeight="1">
-      <c r="A23" s="279"/>
+      <c r="A23" s="267"/>
       <c r="B23" s="36"/>
-      <c r="C23" s="195"/>
-      <c r="D23" s="196"/>
-      <c r="E23" s="287"/>
-      <c r="F23" s="289"/>
+      <c r="C23" s="168"/>
+      <c r="D23" s="169"/>
+      <c r="E23" s="269"/>
+      <c r="F23" s="271"/>
       <c r="G23" s="51"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -10684,22 +10690,22 @@
       <c r="Z23" s="13"/>
       <c r="AA23" s="19"/>
       <c r="AB23" s="7"/>
-      <c r="AC23" s="276"/>
-      <c r="AD23" s="262"/>
+      <c r="AC23" s="295"/>
+      <c r="AD23" s="282"/>
     </row>
     <row r="24" spans="1:30" ht="12" customHeight="1">
-      <c r="A24" s="278">
+      <c r="A24" s="266">
         <v>11</v>
       </c>
       <c r="B24" s="36"/>
-      <c r="C24" s="193" t="s">
+      <c r="C24" s="247" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="194"/>
-      <c r="E24" s="294" t="s">
+      <c r="D24" s="214"/>
+      <c r="E24" s="268" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="291"/>
+      <c r="F24" s="270"/>
       <c r="G24" s="52"/>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
@@ -10722,16 +10728,16 @@
       <c r="Z24" s="25"/>
       <c r="AA24" s="26"/>
       <c r="AB24" s="24"/>
-      <c r="AC24" s="276"/>
-      <c r="AD24" s="262"/>
+      <c r="AC24" s="295"/>
+      <c r="AD24" s="282"/>
     </row>
     <row r="25" spans="1:30" ht="12" customHeight="1">
-      <c r="A25" s="279"/>
+      <c r="A25" s="267"/>
       <c r="B25" s="37"/>
-      <c r="C25" s="195"/>
-      <c r="D25" s="196"/>
-      <c r="E25" s="287"/>
-      <c r="F25" s="284"/>
+      <c r="C25" s="168"/>
+      <c r="D25" s="169"/>
+      <c r="E25" s="269"/>
+      <c r="F25" s="272"/>
       <c r="G25" s="54"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -10754,24 +10760,24 @@
       <c r="Z25" s="17"/>
       <c r="AA25" s="23"/>
       <c r="AB25" s="8"/>
-      <c r="AC25" s="276"/>
-      <c r="AD25" s="262"/>
+      <c r="AC25" s="295"/>
+      <c r="AD25" s="282"/>
     </row>
     <row r="26" spans="1:30" ht="12" customHeight="1">
-      <c r="A26" s="264">
+      <c r="A26" s="258">
         <v>12</v>
       </c>
       <c r="B26" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="211" t="s">
+      <c r="C26" s="239" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="212"/>
-      <c r="E26" s="295" t="s">
+      <c r="D26" s="240"/>
+      <c r="E26" s="259" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="297"/>
+      <c r="F26" s="261"/>
       <c r="G26" s="38"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -10794,16 +10800,16 @@
       <c r="Z26" s="15"/>
       <c r="AA26" s="21"/>
       <c r="AB26" s="6"/>
-      <c r="AC26" s="276"/>
-      <c r="AD26" s="262"/>
+      <c r="AC26" s="295"/>
+      <c r="AD26" s="282"/>
     </row>
     <row r="27" spans="1:30" ht="12" customHeight="1">
-      <c r="A27" s="160"/>
+      <c r="A27" s="159"/>
       <c r="B27" s="34"/>
-      <c r="C27" s="213"/>
-      <c r="D27" s="214"/>
-      <c r="E27" s="296"/>
-      <c r="F27" s="298"/>
+      <c r="C27" s="241"/>
+      <c r="D27" s="242"/>
+      <c r="E27" s="260"/>
+      <c r="F27" s="262"/>
       <c r="G27" s="51"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -10826,24 +10832,24 @@
       <c r="Z27" s="13"/>
       <c r="AA27" s="19"/>
       <c r="AB27" s="7"/>
-      <c r="AC27" s="276"/>
-      <c r="AD27" s="262"/>
+      <c r="AC27" s="295"/>
+      <c r="AD27" s="282"/>
     </row>
     <row r="28" spans="1:30" ht="12" customHeight="1">
-      <c r="A28" s="264">
+      <c r="A28" s="258">
         <v>14</v>
       </c>
-      <c r="B28" s="201" t="s">
+      <c r="B28" s="231" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="203" t="s">
+      <c r="C28" s="170" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="204"/>
-      <c r="E28" s="201" t="s">
+      <c r="D28" s="171"/>
+      <c r="E28" s="231" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="300"/>
+      <c r="F28" s="264"/>
       <c r="G28" s="38"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -10866,16 +10872,16 @@
       <c r="Z28" s="15"/>
       <c r="AA28" s="21"/>
       <c r="AB28" s="40"/>
-      <c r="AC28" s="276"/>
-      <c r="AD28" s="262"/>
+      <c r="AC28" s="295"/>
+      <c r="AD28" s="282"/>
     </row>
     <row r="29" spans="1:30" ht="12" customHeight="1" thickBot="1">
-      <c r="A29" s="299"/>
-      <c r="B29" s="202"/>
-      <c r="C29" s="205"/>
-      <c r="D29" s="206"/>
-      <c r="E29" s="202"/>
-      <c r="F29" s="301"/>
+      <c r="A29" s="263"/>
+      <c r="B29" s="232"/>
+      <c r="C29" s="233"/>
+      <c r="D29" s="234"/>
+      <c r="E29" s="232"/>
+      <c r="F29" s="265"/>
       <c r="G29" s="39"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -10898,8 +10904,8 @@
       <c r="Z29" s="14"/>
       <c r="AA29" s="20"/>
       <c r="AB29" s="11"/>
-      <c r="AC29" s="277"/>
-      <c r="AD29" s="263"/>
+      <c r="AC29" s="296"/>
+      <c r="AD29" s="283"/>
     </row>
     <row r="30" spans="1:30">
       <c r="Z30" s="5"/>
@@ -10919,45 +10925,12 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G1:AD1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
     <mergeCell ref="AD4:AD29"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="C6:D7"/>
@@ -10974,12 +10947,45 @@
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="C10:D11"/>
-    <mergeCell ref="G1:AD1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>
